--- a/df_log_20250324.xlsx
+++ b/df_log_20250324.xlsx
@@ -1,14 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20416"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\윤정은책임\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDE61A8B-86DA-45C3-B5D4-9ADCE3284A33}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21943" windowHeight="8897" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$M$211</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$M$211</definedName>
   </definedNames>
-  <calcPr/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="i4JAuATTv3w9QkRjIu5OXw0vhB6k/S5y8qzdJot0GjY="/>
@@ -2477,26 +2487,37 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
+    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="3"/>
+      <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -2505,11 +2526,17 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="2">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -2523,39 +2550,39 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -2745,23 +2772,27 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:M1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A128" workbookViewId="0">
+      <selection activeCell="K142" sqref="K142"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.4609375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
-    <col customWidth="1" min="1" max="26" width="8.71"/>
+    <col min="1" max="11" width="8.69140625" customWidth="1"/>
+    <col min="12" max="12" width="18.53515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="26" width="8.69140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:13" ht="14.6" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2802,7 +2833,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:13" ht="14.6" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>13</v>
       </c>
@@ -2825,7 +2856,7 @@
         <v>19</v>
       </c>
       <c r="K2" s="2">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>20</v>
@@ -2834,7 +2865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:13" ht="14.6" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
         <v>21</v>
       </c>
@@ -2857,16 +2888,16 @@
         <v>25</v>
       </c>
       <c r="K3" s="3">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="L3" s="4">
-        <v>45733.0</v>
+        <v>45733</v>
       </c>
       <c r="M3" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:13" ht="14.6" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
         <v>26</v>
       </c>
@@ -2889,7 +2920,7 @@
         <v>30</v>
       </c>
       <c r="K4" s="2">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="L4" s="2" t="s">
         <v>31</v>
@@ -2898,7 +2929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:13" ht="14.6" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
         <v>32</v>
       </c>
@@ -2921,7 +2952,7 @@
         <v>37</v>
       </c>
       <c r="K5" s="2">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="L5" s="2" t="s">
         <v>38</v>
@@ -2930,7 +2961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:13" ht="14.6" x14ac:dyDescent="0.4">
       <c r="A6" s="2" t="s">
         <v>39</v>
       </c>
@@ -2953,7 +2984,7 @@
         <v>19</v>
       </c>
       <c r="K6" s="2">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>43</v>
@@ -2962,7 +2993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:13" ht="14.6" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
         <v>44</v>
       </c>
@@ -2985,7 +3016,7 @@
         <v>48</v>
       </c>
       <c r="K7" s="2">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>49</v>
@@ -2994,7 +3025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:13" ht="14.6" x14ac:dyDescent="0.4">
       <c r="A8" s="2" t="s">
         <v>50</v>
       </c>
@@ -3017,7 +3048,7 @@
         <v>54</v>
       </c>
       <c r="K8" s="2">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>55</v>
@@ -3026,7 +3057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:13" ht="14.6" x14ac:dyDescent="0.4">
       <c r="A9" s="2" t="s">
         <v>56</v>
       </c>
@@ -3049,7 +3080,7 @@
         <v>48</v>
       </c>
       <c r="K9" s="2">
-        <v>19.0</v>
+        <v>19</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>20</v>
@@ -3058,7 +3089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:13" ht="14.6" x14ac:dyDescent="0.4">
       <c r="A10" s="2" t="s">
         <v>59</v>
       </c>
@@ -3084,7 +3115,7 @@
         <v>63</v>
       </c>
       <c r="K10" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>55</v>
@@ -3093,7 +3124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:13" ht="14.6" x14ac:dyDescent="0.4">
       <c r="A11" s="2" t="s">
         <v>64</v>
       </c>
@@ -3119,7 +3150,7 @@
         <v>68</v>
       </c>
       <c r="K11" s="2">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>69</v>
@@ -3128,7 +3159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:13" ht="14.6" x14ac:dyDescent="0.4">
       <c r="A12" s="2" t="s">
         <v>70</v>
       </c>
@@ -3154,7 +3185,7 @@
         <v>73</v>
       </c>
       <c r="K12" s="2">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="L12" s="2" t="s">
         <v>69</v>
@@ -3163,7 +3194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:13" ht="14.6" x14ac:dyDescent="0.4">
       <c r="A13" s="2" t="s">
         <v>74</v>
       </c>
@@ -3189,7 +3220,7 @@
         <v>73</v>
       </c>
       <c r="K13" s="2">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="L13" s="2" t="s">
         <v>78</v>
@@ -3198,7 +3229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:13" ht="14.6" x14ac:dyDescent="0.4">
       <c r="A14" s="2" t="s">
         <v>79</v>
       </c>
@@ -3221,7 +3252,7 @@
         <v>54</v>
       </c>
       <c r="K14" s="2">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="L14" s="2" t="s">
         <v>43</v>
@@ -3230,7 +3261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:13" ht="14.6" x14ac:dyDescent="0.4">
       <c r="A15" s="2" t="s">
         <v>82</v>
       </c>
@@ -3256,7 +3287,7 @@
         <v>63</v>
       </c>
       <c r="K15" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L15" s="2" t="s">
         <v>55</v>
@@ -3265,7 +3296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:13" ht="14.6" x14ac:dyDescent="0.4">
       <c r="A16" s="2" t="s">
         <v>85</v>
       </c>
@@ -3291,7 +3322,7 @@
         <v>88</v>
       </c>
       <c r="K16" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L16" s="2" t="s">
         <v>55</v>
@@ -3300,7 +3331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:13" ht="14.6" x14ac:dyDescent="0.4">
       <c r="A17" s="2" t="s">
         <v>89</v>
       </c>
@@ -3326,7 +3357,7 @@
         <v>54</v>
       </c>
       <c r="K17" s="2">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="L17" s="2" t="s">
         <v>95</v>
@@ -3335,7 +3366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:13" ht="14.6" x14ac:dyDescent="0.4">
       <c r="A18" s="2" t="s">
         <v>96</v>
       </c>
@@ -3361,7 +3392,7 @@
         <v>48</v>
       </c>
       <c r="K18" s="2">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="L18" s="2" t="s">
         <v>55</v>
@@ -3370,7 +3401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:13" ht="14.6" x14ac:dyDescent="0.4">
       <c r="A19" s="2" t="s">
         <v>101</v>
       </c>
@@ -3396,7 +3427,7 @@
         <v>48</v>
       </c>
       <c r="K19" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L19" s="2" t="s">
         <v>55</v>
@@ -3405,7 +3436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:13" ht="14.6" x14ac:dyDescent="0.4">
       <c r="A20" s="2" t="s">
         <v>105</v>
       </c>
@@ -3434,16 +3465,16 @@
         <v>48</v>
       </c>
       <c r="K20" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L20" s="4">
-        <v>45740.0</v>
+        <v>45740</v>
       </c>
       <c r="M20" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="21" ht="15.75" customHeight="1">
+    <row r="21" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="2" t="s">
         <v>109</v>
       </c>
@@ -3466,7 +3497,7 @@
         <v>48</v>
       </c>
       <c r="K21" s="2">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="L21" s="2" t="s">
         <v>49</v>
@@ -3475,7 +3506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" ht="15.75" customHeight="1">
+    <row r="22" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="2" t="s">
         <v>113</v>
       </c>
@@ -3504,7 +3535,7 @@
         <v>48</v>
       </c>
       <c r="K22" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L22" s="2" t="s">
         <v>55</v>
@@ -3513,7 +3544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" ht="15.75" customHeight="1">
+    <row r="23" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="2" t="s">
         <v>119</v>
       </c>
@@ -3542,7 +3573,7 @@
         <v>48</v>
       </c>
       <c r="K23" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L23" s="2" t="s">
         <v>55</v>
@@ -3551,7 +3582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" ht="15.75" customHeight="1">
+    <row r="24" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="2" t="s">
         <v>124</v>
       </c>
@@ -3577,7 +3608,7 @@
         <v>63</v>
       </c>
       <c r="K24" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L24" s="2" t="s">
         <v>55</v>
@@ -3586,7 +3617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" ht="15.75" customHeight="1">
+    <row r="25" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="2" t="s">
         <v>127</v>
       </c>
@@ -3615,7 +3646,7 @@
         <v>19</v>
       </c>
       <c r="K25" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L25" s="2" t="s">
         <v>55</v>
@@ -3624,7 +3655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" ht="15.75" customHeight="1">
+    <row r="26" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="2" t="s">
         <v>132</v>
       </c>
@@ -3650,7 +3681,7 @@
         <v>19</v>
       </c>
       <c r="K26" s="2">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="L26" s="2" t="s">
         <v>136</v>
@@ -3659,7 +3690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" ht="15.75" customHeight="1">
+    <row r="27" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="2" t="s">
         <v>137</v>
       </c>
@@ -3682,16 +3713,16 @@
         <v>88</v>
       </c>
       <c r="K27" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L27" s="4">
-        <v>45740.0</v>
+        <v>45740</v>
       </c>
       <c r="M27" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="28" ht="15.75" customHeight="1">
+    <row r="28" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="2" t="s">
         <v>140</v>
       </c>
@@ -3717,7 +3748,7 @@
         <v>68</v>
       </c>
       <c r="K28" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="L28" s="2" t="s">
         <v>55</v>
@@ -3726,7 +3757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" ht="15.75" customHeight="1">
+    <row r="29" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="2" t="s">
         <v>144</v>
       </c>
@@ -3752,7 +3783,7 @@
         <v>63</v>
       </c>
       <c r="K29" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L29" s="2" t="s">
         <v>55</v>
@@ -3761,7 +3792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" ht="15.75" customHeight="1">
+    <row r="30" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="2" t="s">
         <v>147</v>
       </c>
@@ -3787,7 +3818,7 @@
         <v>63</v>
       </c>
       <c r="K30" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L30" s="2" t="s">
         <v>55</v>
@@ -3796,7 +3827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" ht="15.75" customHeight="1">
+    <row r="31" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="2" t="s">
         <v>150</v>
       </c>
@@ -3822,7 +3853,7 @@
         <v>54</v>
       </c>
       <c r="K31" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="L31" s="2" t="s">
         <v>55</v>
@@ -3831,7 +3862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" ht="15.75" customHeight="1">
+    <row r="32" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="2" t="s">
         <v>154</v>
       </c>
@@ -3857,7 +3888,7 @@
         <v>73</v>
       </c>
       <c r="K32" s="2">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="L32" s="2" t="s">
         <v>55</v>
@@ -3866,7 +3897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" ht="15.75" customHeight="1">
+    <row r="33" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="2" t="s">
         <v>157</v>
       </c>
@@ -3892,7 +3923,7 @@
         <v>54</v>
       </c>
       <c r="K33" s="2">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="L33" s="2" t="s">
         <v>55</v>
@@ -3901,7 +3932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" ht="15.75" customHeight="1">
+    <row r="34" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="2" t="s">
         <v>160</v>
       </c>
@@ -3924,7 +3955,7 @@
         <v>163</v>
       </c>
       <c r="K34" s="2">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="L34" s="2" t="s">
         <v>43</v>
@@ -3933,7 +3964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" ht="15.75" customHeight="1">
+    <row r="35" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="2" t="s">
         <v>164</v>
       </c>
@@ -3959,7 +3990,7 @@
         <v>19</v>
       </c>
       <c r="K35" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="L35" s="2" t="s">
         <v>55</v>
@@ -3968,7 +3999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" ht="15.75" customHeight="1">
+    <row r="36" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="2" t="s">
         <v>167</v>
       </c>
@@ -3994,7 +4025,7 @@
         <v>19</v>
       </c>
       <c r="K36" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L36" s="2" t="s">
         <v>55</v>
@@ -4003,7 +4034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" ht="15.75" customHeight="1">
+    <row r="37" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="2" t="s">
         <v>170</v>
       </c>
@@ -4032,7 +4063,7 @@
         <v>19</v>
       </c>
       <c r="K37" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="L37" s="2" t="s">
         <v>55</v>
@@ -4041,7 +4072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" ht="15.75" customHeight="1">
+    <row r="38" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="2" t="s">
         <v>174</v>
       </c>
@@ -4070,7 +4101,7 @@
         <v>19</v>
       </c>
       <c r="K38" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="L38" s="2" t="s">
         <v>55</v>
@@ -4079,7 +4110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" ht="15.75" customHeight="1">
+    <row r="39" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="2" t="s">
         <v>177</v>
       </c>
@@ -4108,7 +4139,7 @@
         <v>19</v>
       </c>
       <c r="K39" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L39" s="2" t="s">
         <v>55</v>
@@ -4117,7 +4148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" ht="15.75" customHeight="1">
+    <row r="40" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="2" t="s">
         <v>180</v>
       </c>
@@ -4146,7 +4177,7 @@
         <v>19</v>
       </c>
       <c r="K40" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L40" s="2" t="s">
         <v>55</v>
@@ -4155,7 +4186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" ht="15.75" customHeight="1">
+    <row r="41" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="2" t="s">
         <v>183</v>
       </c>
@@ -4178,7 +4209,7 @@
         <v>19</v>
       </c>
       <c r="K41" s="2">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="L41" s="2" t="s">
         <v>187</v>
@@ -4187,7 +4218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" ht="15.75" customHeight="1">
+    <row r="42" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="2" t="s">
         <v>188</v>
       </c>
@@ -4216,16 +4247,16 @@
         <v>19</v>
       </c>
       <c r="K42" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L42" s="4">
-        <v>45740.0</v>
+        <v>45740</v>
       </c>
       <c r="M42" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="43" ht="15.75" customHeight="1">
+    <row r="43" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="2" t="s">
         <v>192</v>
       </c>
@@ -4254,7 +4285,7 @@
         <v>197</v>
       </c>
       <c r="K43" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="L43" s="2" t="s">
         <v>55</v>
@@ -4263,7 +4294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" ht="15.75" customHeight="1">
+    <row r="44" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="2" t="s">
         <v>198</v>
       </c>
@@ -4289,16 +4320,16 @@
         <v>19</v>
       </c>
       <c r="K44" s="3">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="L44" s="4">
-        <v>45740.0</v>
+        <v>45740</v>
       </c>
       <c r="M44" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="45" ht="15.75" customHeight="1">
+    <row r="45" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="2" t="s">
         <v>202</v>
       </c>
@@ -4327,7 +4358,7 @@
         <v>197</v>
       </c>
       <c r="K45" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L45" s="2" t="s">
         <v>55</v>
@@ -4336,7 +4367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" ht="15.75" customHeight="1">
+    <row r="46" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="2" t="s">
         <v>205</v>
       </c>
@@ -4362,7 +4393,7 @@
         <v>208</v>
       </c>
       <c r="K46" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L46" s="2" t="s">
         <v>55</v>
@@ -4371,7 +4402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" ht="15.75" customHeight="1">
+    <row r="47" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="2" t="s">
         <v>209</v>
       </c>
@@ -4397,7 +4428,7 @@
         <v>19</v>
       </c>
       <c r="K47" s="2">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="L47" s="2" t="s">
         <v>55</v>
@@ -4406,7 +4437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" ht="15.75" customHeight="1">
+    <row r="48" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="2" t="s">
         <v>212</v>
       </c>
@@ -4432,16 +4463,16 @@
         <v>19</v>
       </c>
       <c r="K48" s="3">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="L48" s="4">
-        <v>45741.0</v>
+        <v>45741</v>
       </c>
       <c r="M48" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="49" ht="15.75" customHeight="1">
+    <row r="49" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="2" t="s">
         <v>215</v>
       </c>
@@ -4467,7 +4498,7 @@
         <v>48</v>
       </c>
       <c r="K49" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L49" s="2" t="s">
         <v>55</v>
@@ -4476,7 +4507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" ht="15.75" customHeight="1">
+    <row r="50" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="2" t="s">
         <v>218</v>
       </c>
@@ -4502,7 +4533,7 @@
         <v>19</v>
       </c>
       <c r="K50" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L50" s="2" t="s">
         <v>55</v>
@@ -4511,7 +4542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" ht="15.75" customHeight="1">
+    <row r="51" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="2" t="s">
         <v>221</v>
       </c>
@@ -4540,16 +4571,16 @@
         <v>19</v>
       </c>
       <c r="K51" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L51" s="4">
-        <v>45741.0</v>
+        <v>45741</v>
       </c>
       <c r="M51" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="52" ht="15.75" customHeight="1">
+    <row r="52" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="2" t="s">
         <v>225</v>
       </c>
@@ -4578,16 +4609,16 @@
         <v>19</v>
       </c>
       <c r="K52" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L52" s="4">
-        <v>45741.0</v>
+        <v>45741</v>
       </c>
       <c r="M52" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="53" ht="15.75" customHeight="1">
+    <row r="53" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="2" t="s">
         <v>230</v>
       </c>
@@ -4616,7 +4647,7 @@
         <v>19</v>
       </c>
       <c r="K53" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L53" s="2" t="s">
         <v>55</v>
@@ -4625,7 +4656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" ht="15.75" customHeight="1">
+    <row r="54" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A54" s="2" t="s">
         <v>233</v>
       </c>
@@ -4654,7 +4685,7 @@
         <v>19</v>
       </c>
       <c r="K54" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L54" s="2" t="s">
         <v>55</v>
@@ -4663,7 +4694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" ht="15.75" customHeight="1">
+    <row r="55" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="2" t="s">
         <v>236</v>
       </c>
@@ -4692,7 +4723,7 @@
         <v>19</v>
       </c>
       <c r="K55" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L55" s="2" t="s">
         <v>55</v>
@@ -4701,7 +4732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" ht="15.75" customHeight="1">
+    <row r="56" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="2" t="s">
         <v>239</v>
       </c>
@@ -4730,7 +4761,7 @@
         <v>54</v>
       </c>
       <c r="K56" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L56" s="2" t="s">
         <v>55</v>
@@ -4739,7 +4770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" ht="15.75" customHeight="1">
+    <row r="57" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A57" s="2" t="s">
         <v>243</v>
       </c>
@@ -4765,7 +4796,7 @@
         <v>19</v>
       </c>
       <c r="K57" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L57" s="2" t="s">
         <v>55</v>
@@ -4774,7 +4805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" ht="15.75" customHeight="1">
+    <row r="58" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="2" t="s">
         <v>246</v>
       </c>
@@ -4803,16 +4834,16 @@
         <v>251</v>
       </c>
       <c r="K58" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L58" s="4">
-        <v>45741.0</v>
+        <v>45741</v>
       </c>
       <c r="M58" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="59" ht="15.75" customHeight="1">
+    <row r="59" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="2" t="s">
         <v>252</v>
       </c>
@@ -4838,7 +4869,7 @@
         <v>48</v>
       </c>
       <c r="K59" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L59" s="2" t="s">
         <v>55</v>
@@ -4847,7 +4878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" ht="15.75" customHeight="1">
+    <row r="60" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60" s="2" t="s">
         <v>255</v>
       </c>
@@ -4873,7 +4904,7 @@
         <v>19</v>
       </c>
       <c r="K60" s="2">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="L60" s="2" t="s">
         <v>258</v>
@@ -4882,7 +4913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" ht="15.75" customHeight="1">
+    <row r="61" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A61" s="2" t="s">
         <v>259</v>
       </c>
@@ -4908,7 +4939,7 @@
         <v>19</v>
       </c>
       <c r="K61" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L61" s="2" t="s">
         <v>55</v>
@@ -4917,7 +4948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" ht="15.75" customHeight="1">
+    <row r="62" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A62" s="2" t="s">
         <v>262</v>
       </c>
@@ -4946,7 +4977,7 @@
         <v>197</v>
       </c>
       <c r="K62" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L62" s="2" t="s">
         <v>55</v>
@@ -4955,7 +4986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" ht="15.75" customHeight="1">
+    <row r="63" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A63" s="2" t="s">
         <v>265</v>
       </c>
@@ -4978,7 +5009,7 @@
         <v>19</v>
       </c>
       <c r="K63" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="L63" s="2" t="s">
         <v>55</v>
@@ -4987,7 +5018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" ht="15.75" customHeight="1">
+    <row r="64" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A64" s="2" t="s">
         <v>269</v>
       </c>
@@ -5016,16 +5047,16 @@
         <v>54</v>
       </c>
       <c r="K64" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L64" s="4">
-        <v>45740.0</v>
+        <v>45740</v>
       </c>
       <c r="M64" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="65" ht="15.75" customHeight="1">
+    <row r="65" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A65" s="2" t="s">
         <v>274</v>
       </c>
@@ -5054,7 +5085,7 @@
         <v>197</v>
       </c>
       <c r="K65" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L65" s="2" t="s">
         <v>55</v>
@@ -5063,7 +5094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" ht="15.75" customHeight="1">
+    <row r="66" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A66" s="2" t="s">
         <v>277</v>
       </c>
@@ -5092,7 +5123,7 @@
         <v>282</v>
       </c>
       <c r="K66" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L66" s="2" t="s">
         <v>55</v>
@@ -5101,7 +5132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" ht="15.75" customHeight="1">
+    <row r="67" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A67" s="2" t="s">
         <v>283</v>
       </c>
@@ -5130,7 +5161,7 @@
         <v>197</v>
       </c>
       <c r="K67" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L67" s="2" t="s">
         <v>55</v>
@@ -5139,7 +5170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" ht="15.75" customHeight="1">
+    <row r="68" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A68" s="2" t="s">
         <v>286</v>
       </c>
@@ -5165,7 +5196,7 @@
         <v>48</v>
       </c>
       <c r="K68" s="2">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="L68" s="2" t="s">
         <v>55</v>
@@ -5174,7 +5205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" ht="15.75" customHeight="1">
+    <row r="69" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A69" s="2" t="s">
         <v>289</v>
       </c>
@@ -5200,7 +5231,7 @@
         <v>30</v>
       </c>
       <c r="K69" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L69" s="2" t="s">
         <v>55</v>
@@ -5209,7 +5240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" ht="15.75" customHeight="1">
+    <row r="70" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A70" s="2" t="s">
         <v>292</v>
       </c>
@@ -5235,7 +5266,7 @@
         <v>19</v>
       </c>
       <c r="K70" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L70" s="2" t="s">
         <v>55</v>
@@ -5244,7 +5275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" ht="15.75" customHeight="1">
+    <row r="71" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A71" s="2" t="s">
         <v>295</v>
       </c>
@@ -5270,7 +5301,7 @@
         <v>30</v>
       </c>
       <c r="K71" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L71" s="2" t="s">
         <v>55</v>
@@ -5279,7 +5310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" ht="15.75" customHeight="1">
+    <row r="72" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A72" s="2" t="s">
         <v>298</v>
       </c>
@@ -5305,7 +5336,7 @@
         <v>68</v>
       </c>
       <c r="K72" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L72" s="2" t="s">
         <v>55</v>
@@ -5314,7 +5345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" ht="15.75" customHeight="1">
+    <row r="73" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A73" s="2" t="s">
         <v>301</v>
       </c>
@@ -5340,7 +5371,7 @@
         <v>30</v>
       </c>
       <c r="K73" s="2">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="L73" s="2" t="s">
         <v>55</v>
@@ -5349,7 +5380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" ht="15.75" customHeight="1">
+    <row r="74" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A74" s="2" t="s">
         <v>304</v>
       </c>
@@ -5375,7 +5406,7 @@
         <v>208</v>
       </c>
       <c r="K74" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L74" s="2" t="s">
         <v>55</v>
@@ -5384,7 +5415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" ht="15.75" customHeight="1">
+    <row r="75" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A75" s="2" t="s">
         <v>307</v>
       </c>
@@ -5410,7 +5441,7 @@
         <v>19</v>
       </c>
       <c r="K75" s="2">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="L75" s="2" t="s">
         <v>55</v>
@@ -5419,7 +5450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" ht="15.75" customHeight="1">
+    <row r="76" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A76" s="2" t="s">
         <v>310</v>
       </c>
@@ -5445,7 +5476,7 @@
         <v>315</v>
       </c>
       <c r="K76" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L76" s="2" t="s">
         <v>55</v>
@@ -5454,7 +5485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" ht="15.75" customHeight="1">
+    <row r="77" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A77" s="2" t="s">
         <v>316</v>
       </c>
@@ -5483,7 +5514,7 @@
         <v>88</v>
       </c>
       <c r="K77" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L77" s="2" t="s">
         <v>55</v>
@@ -5492,7 +5523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" ht="15.75" customHeight="1">
+    <row r="78" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A78" s="2" t="s">
         <v>320</v>
       </c>
@@ -5518,7 +5549,7 @@
         <v>48</v>
       </c>
       <c r="K78" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="L78" s="2" t="s">
         <v>55</v>
@@ -5527,7 +5558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" ht="15.75" customHeight="1">
+    <row r="79" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A79" s="2" t="s">
         <v>323</v>
       </c>
@@ -5553,7 +5584,7 @@
         <v>327</v>
       </c>
       <c r="K79" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L79" s="2" t="s">
         <v>55</v>
@@ -5562,7 +5593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" ht="15.75" customHeight="1">
+    <row r="80" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A80" s="2" t="s">
         <v>328</v>
       </c>
@@ -5588,7 +5619,7 @@
         <v>48</v>
       </c>
       <c r="K80" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L80" s="2" t="s">
         <v>55</v>
@@ -5597,7 +5628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" ht="15.75" customHeight="1">
+    <row r="81" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A81" s="2" t="s">
         <v>331</v>
       </c>
@@ -5626,7 +5657,7 @@
         <v>19</v>
       </c>
       <c r="K81" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="L81" s="2" t="s">
         <v>55</v>
@@ -5635,7 +5666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" ht="15.75" customHeight="1">
+    <row r="82" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A82" s="2" t="s">
         <v>335</v>
       </c>
@@ -5661,7 +5692,7 @@
         <v>54</v>
       </c>
       <c r="K82" s="2">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="L82" s="2" t="s">
         <v>55</v>
@@ -5670,7 +5701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" ht="15.75" customHeight="1">
+    <row r="83" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A83" s="2" t="s">
         <v>339</v>
       </c>
@@ -5699,7 +5730,7 @@
         <v>343</v>
       </c>
       <c r="K83" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="L83" s="2" t="s">
         <v>55</v>
@@ -5708,7 +5739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" ht="15.75" customHeight="1">
+    <row r="84" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A84" s="2" t="s">
         <v>344</v>
       </c>
@@ -5734,7 +5765,7 @@
         <v>48</v>
       </c>
       <c r="K84" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L84" s="2" t="s">
         <v>55</v>
@@ -5743,7 +5774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" ht="15.75" customHeight="1">
+    <row r="85" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A85" s="2" t="s">
         <v>347</v>
       </c>
@@ -5766,7 +5797,7 @@
         <v>88</v>
       </c>
       <c r="K85" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L85" s="2" t="s">
         <v>55</v>
@@ -5775,7 +5806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" ht="15.75" customHeight="1">
+    <row r="86" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A86" s="2" t="s">
         <v>350</v>
       </c>
@@ -5804,7 +5835,7 @@
         <v>343</v>
       </c>
       <c r="K86" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L86" s="2" t="s">
         <v>55</v>
@@ -5813,7 +5844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" ht="15.75" customHeight="1">
+    <row r="87" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A87" s="2" t="s">
         <v>354</v>
       </c>
@@ -5839,7 +5870,7 @@
         <v>63</v>
       </c>
       <c r="K87" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L87" s="2" t="s">
         <v>55</v>
@@ -5848,7 +5879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" ht="15.75" customHeight="1">
+    <row r="88" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A88" s="2" t="s">
         <v>357</v>
       </c>
@@ -5877,7 +5908,7 @@
         <v>88</v>
       </c>
       <c r="K88" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="L88" s="2" t="s">
         <v>55</v>
@@ -5886,7 +5917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" ht="15.75" customHeight="1">
+    <row r="89" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A89" s="2" t="s">
         <v>360</v>
       </c>
@@ -5912,7 +5943,7 @@
         <v>19</v>
       </c>
       <c r="K89" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L89" s="2" t="s">
         <v>55</v>
@@ -5921,7 +5952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" ht="15.75" customHeight="1">
+    <row r="90" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A90" s="2" t="s">
         <v>363</v>
       </c>
@@ -5944,16 +5975,16 @@
         <v>19</v>
       </c>
       <c r="K90" s="3">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="L90" s="4">
-        <v>45741.0</v>
+        <v>45741</v>
       </c>
       <c r="M90" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="91" ht="15.75" customHeight="1">
+    <row r="91" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A91" s="2" t="s">
         <v>367</v>
       </c>
@@ -5979,7 +6010,7 @@
         <v>48</v>
       </c>
       <c r="K91" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L91" s="2" t="s">
         <v>55</v>
@@ -5988,7 +6019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" ht="15.75" customHeight="1">
+    <row r="92" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A92" s="2" t="s">
         <v>370</v>
       </c>
@@ -6014,7 +6045,7 @@
         <v>68</v>
       </c>
       <c r="K92" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L92" s="2" t="s">
         <v>55</v>
@@ -6023,7 +6054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" ht="15.75" customHeight="1">
+    <row r="93" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A93" s="2" t="s">
         <v>373</v>
       </c>
@@ -6049,7 +6080,7 @@
         <v>19</v>
       </c>
       <c r="K93" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="L93" s="2" t="s">
         <v>55</v>
@@ -6058,7 +6089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" ht="15.75" customHeight="1">
+    <row r="94" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A94" s="2" t="s">
         <v>376</v>
       </c>
@@ -6084,7 +6115,7 @@
         <v>19</v>
       </c>
       <c r="K94" s="2">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="L94" s="2" t="s">
         <v>55</v>
@@ -6093,7 +6124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" ht="15.75" customHeight="1">
+    <row r="95" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A95" s="2" t="s">
         <v>379</v>
       </c>
@@ -6116,16 +6147,16 @@
         <v>19</v>
       </c>
       <c r="K95" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="L95" s="4">
-        <v>45737.0</v>
+        <v>45737</v>
       </c>
       <c r="M95" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="96" ht="15.75" customHeight="1">
+    <row r="96" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A96" s="2" t="s">
         <v>382</v>
       </c>
@@ -6154,7 +6185,7 @@
         <v>19</v>
       </c>
       <c r="K96" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="L96" s="2" t="s">
         <v>55</v>
@@ -6163,7 +6194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" ht="15.75" customHeight="1">
+    <row r="97" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A97" s="2" t="s">
         <v>387</v>
       </c>
@@ -6192,7 +6223,7 @@
         <v>19</v>
       </c>
       <c r="K97" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L97" s="2" t="s">
         <v>55</v>
@@ -6201,7 +6232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" ht="15.75" customHeight="1">
+    <row r="98" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A98" s="2" t="s">
         <v>391</v>
       </c>
@@ -6227,7 +6258,7 @@
         <v>19</v>
       </c>
       <c r="K98" s="2">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="L98" s="2" t="s">
         <v>55</v>
@@ -6236,7 +6267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" ht="15.75" customHeight="1">
+    <row r="99" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A99" s="2" t="s">
         <v>395</v>
       </c>
@@ -6265,7 +6296,7 @@
         <v>19</v>
       </c>
       <c r="K99" s="2">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="L99" s="2" t="s">
         <v>55</v>
@@ -6274,7 +6305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" ht="15.75" customHeight="1">
+    <row r="100" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A100" s="2" t="s">
         <v>398</v>
       </c>
@@ -6300,7 +6331,7 @@
         <v>48</v>
       </c>
       <c r="K100" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="L100" s="2" t="s">
         <v>55</v>
@@ -6309,7 +6340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" ht="15.75" customHeight="1">
+    <row r="101" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A101" s="2" t="s">
         <v>401</v>
       </c>
@@ -6332,7 +6363,7 @@
         <v>404</v>
       </c>
       <c r="K101" s="2">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="L101" s="2" t="s">
         <v>55</v>
@@ -6341,7 +6372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" ht="15.75" customHeight="1">
+    <row r="102" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A102" s="2" t="s">
         <v>405</v>
       </c>
@@ -6367,7 +6398,7 @@
         <v>48</v>
       </c>
       <c r="K102" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L102" s="2" t="s">
         <v>55</v>
@@ -6376,7 +6407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" ht="15.75" customHeight="1">
+    <row r="103" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A103" s="2" t="s">
         <v>408</v>
       </c>
@@ -6402,7 +6433,7 @@
         <v>48</v>
       </c>
       <c r="K103" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L103" s="2" t="s">
         <v>55</v>
@@ -6411,7 +6442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" ht="15.75" customHeight="1">
+    <row r="104" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A104" s="2" t="s">
         <v>411</v>
       </c>
@@ -6443,7 +6474,7 @@
         <v>416</v>
       </c>
       <c r="K104" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="L104" s="2" t="s">
         <v>55</v>
@@ -6452,7 +6483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" ht="15.75" customHeight="1">
+    <row r="105" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A105" s="2" t="s">
         <v>417</v>
       </c>
@@ -6484,7 +6515,7 @@
         <v>422</v>
       </c>
       <c r="K105" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="L105" s="2" t="s">
         <v>55</v>
@@ -6493,7 +6524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" ht="15.75" customHeight="1">
+    <row r="106" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A106" s="2" t="s">
         <v>423</v>
       </c>
@@ -6519,7 +6550,7 @@
         <v>19</v>
       </c>
       <c r="K106" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="L106" s="2" t="s">
         <v>55</v>
@@ -6528,7 +6559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" ht="15.75" customHeight="1">
+    <row r="107" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A107" s="2" t="s">
         <v>426</v>
       </c>
@@ -6551,7 +6582,7 @@
         <v>19</v>
       </c>
       <c r="K107" s="2">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="L107" s="2" t="s">
         <v>55</v>
@@ -6560,7 +6591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" ht="15.75" customHeight="1">
+    <row r="108" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A108" s="2" t="s">
         <v>429</v>
       </c>
@@ -6589,7 +6620,7 @@
         <v>19</v>
       </c>
       <c r="K108" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L108" s="2" t="s">
         <v>55</v>
@@ -6598,7 +6629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" ht="15.75" customHeight="1">
+    <row r="109" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A109" s="2" t="s">
         <v>433</v>
       </c>
@@ -6630,7 +6661,7 @@
         <v>436</v>
       </c>
       <c r="K109" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L109" s="2" t="s">
         <v>55</v>
@@ -6639,7 +6670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" ht="15.75" customHeight="1">
+    <row r="110" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A110" s="2" t="s">
         <v>437</v>
       </c>
@@ -6665,7 +6696,7 @@
         <v>54</v>
       </c>
       <c r="K110" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L110" s="2" t="s">
         <v>55</v>
@@ -6674,7 +6705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" ht="15.75" customHeight="1">
+    <row r="111" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A111" s="2" t="s">
         <v>440</v>
       </c>
@@ -6703,7 +6734,7 @@
         <v>19</v>
       </c>
       <c r="K111" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L111" s="2" t="s">
         <v>55</v>
@@ -6712,7 +6743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" ht="15.75" customHeight="1">
+    <row r="112" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A112" s="2" t="s">
         <v>445</v>
       </c>
@@ -6741,7 +6772,7 @@
         <v>19</v>
       </c>
       <c r="K112" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L112" s="2" t="s">
         <v>55</v>
@@ -6750,7 +6781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" ht="15.75" customHeight="1">
+    <row r="113" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A113" s="2" t="s">
         <v>448</v>
       </c>
@@ -6779,16 +6810,16 @@
         <v>19</v>
       </c>
       <c r="K113" s="3">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="L113" s="4">
-        <v>45741.0</v>
+        <v>45741</v>
       </c>
       <c r="M113" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="114" ht="15.75" customHeight="1">
+    <row r="114" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A114" s="2" t="s">
         <v>452</v>
       </c>
@@ -6814,7 +6845,7 @@
         <v>19</v>
       </c>
       <c r="K114" s="2">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="L114" s="2" t="s">
         <v>455</v>
@@ -6823,7 +6854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" ht="15.75" customHeight="1">
+    <row r="115" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A115" s="2" t="s">
         <v>456</v>
       </c>
@@ -6846,7 +6877,7 @@
         <v>54</v>
       </c>
       <c r="K115" s="2">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="L115" s="2" t="s">
         <v>459</v>
@@ -6855,7 +6886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" ht="15.75" customHeight="1">
+    <row r="116" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A116" s="2" t="s">
         <v>460</v>
       </c>
@@ -6884,7 +6915,7 @@
         <v>19</v>
       </c>
       <c r="K116" s="2">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="L116" s="2" t="s">
         <v>49</v>
@@ -6893,7 +6924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" ht="15.75" customHeight="1">
+    <row r="117" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A117" s="2" t="s">
         <v>465</v>
       </c>
@@ -6916,7 +6947,7 @@
         <v>19</v>
       </c>
       <c r="K117" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="L117" s="2" t="s">
         <v>55</v>
@@ -6925,7 +6956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" ht="15.75" customHeight="1">
+    <row r="118" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A118" s="2" t="s">
         <v>468</v>
       </c>
@@ -6954,7 +6985,7 @@
         <v>19</v>
       </c>
       <c r="K118" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L118" s="2" t="s">
         <v>55</v>
@@ -6963,7 +6994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" ht="15.75" customHeight="1">
+    <row r="119" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A119" s="2" t="s">
         <v>471</v>
       </c>
@@ -6992,7 +7023,7 @@
         <v>19</v>
       </c>
       <c r="K119" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="L119" s="2" t="s">
         <v>55</v>
@@ -7001,7 +7032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" ht="15.75" customHeight="1">
+    <row r="120" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A120" s="2" t="s">
         <v>474</v>
       </c>
@@ -7030,7 +7061,7 @@
         <v>19</v>
       </c>
       <c r="K120" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L120" s="2" t="s">
         <v>55</v>
@@ -7039,7 +7070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" ht="15.75" customHeight="1">
+    <row r="121" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A121" s="2" t="s">
         <v>478</v>
       </c>
@@ -7068,7 +7099,7 @@
         <v>19</v>
       </c>
       <c r="K121" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L121" s="2" t="s">
         <v>55</v>
@@ -7077,7 +7108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" ht="15.75" customHeight="1">
+    <row r="122" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A122" s="2" t="s">
         <v>482</v>
       </c>
@@ -7103,7 +7134,7 @@
         <v>48</v>
       </c>
       <c r="K122" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="L122" s="2" t="s">
         <v>55</v>
@@ -7112,7 +7143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" ht="15.75" customHeight="1">
+    <row r="123" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A123" s="2" t="s">
         <v>485</v>
       </c>
@@ -7138,16 +7169,16 @@
         <v>54</v>
       </c>
       <c r="K123" s="3">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="L123" s="4">
-        <v>45741.0</v>
+        <v>45741</v>
       </c>
       <c r="M123" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="124" ht="15.75" customHeight="1">
+    <row r="124" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A124" s="2" t="s">
         <v>488</v>
       </c>
@@ -7179,16 +7210,16 @@
         <v>492</v>
       </c>
       <c r="K124" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L124" s="4">
-        <v>45741.0</v>
+        <v>45741</v>
       </c>
       <c r="M124" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="125" ht="15.75" customHeight="1">
+    <row r="125" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A125" s="2" t="s">
         <v>493</v>
       </c>
@@ -7217,16 +7248,16 @@
         <v>19</v>
       </c>
       <c r="K125" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L125" s="4">
-        <v>45740.0</v>
+        <v>45740</v>
       </c>
       <c r="M125" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="126" ht="15.75" customHeight="1">
+    <row r="126" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A126" s="2" t="s">
         <v>498</v>
       </c>
@@ -7255,7 +7286,7 @@
         <v>19</v>
       </c>
       <c r="K126" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L126" s="2" t="s">
         <v>55</v>
@@ -7264,7 +7295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" ht="15.75" customHeight="1">
+    <row r="127" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A127" s="2" t="s">
         <v>501</v>
       </c>
@@ -7290,7 +7321,7 @@
         <v>506</v>
       </c>
       <c r="K127" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L127" s="2" t="s">
         <v>55</v>
@@ -7299,7 +7330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" ht="15.75" customHeight="1">
+    <row r="128" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A128" s="2" t="s">
         <v>507</v>
       </c>
@@ -7328,7 +7359,7 @@
         <v>19</v>
       </c>
       <c r="K128" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L128" s="2" t="s">
         <v>55</v>
@@ -7337,7 +7368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" ht="15.75" customHeight="1">
+    <row r="129" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A129" s="2" t="s">
         <v>512</v>
       </c>
@@ -7363,7 +7394,7 @@
         <v>19</v>
       </c>
       <c r="K129" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="L129" s="2" t="s">
         <v>55</v>
@@ -7372,7 +7403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" ht="15.75" customHeight="1">
+    <row r="130" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A130" s="2" t="s">
         <v>515</v>
       </c>
@@ -7395,7 +7426,7 @@
         <v>19</v>
       </c>
       <c r="K130" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L130" s="2" t="s">
         <v>55</v>
@@ -7404,7 +7435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" ht="15.75" customHeight="1">
+    <row r="131" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A131" s="2" t="s">
         <v>518</v>
       </c>
@@ -7433,16 +7464,16 @@
         <v>19</v>
       </c>
       <c r="K131" s="3">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="L131" s="4">
-        <v>45741.0</v>
+        <v>45741</v>
       </c>
       <c r="M131" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="132" ht="15.75" customHeight="1">
+    <row r="132" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A132" s="2" t="s">
         <v>522</v>
       </c>
@@ -7471,7 +7502,7 @@
         <v>19</v>
       </c>
       <c r="K132" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L132" s="2" t="s">
         <v>55</v>
@@ -7480,7 +7511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" ht="15.75" customHeight="1">
+    <row r="133" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A133" s="2" t="s">
         <v>526</v>
       </c>
@@ -7509,7 +7540,7 @@
         <v>19</v>
       </c>
       <c r="K133" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L133" s="2" t="s">
         <v>55</v>
@@ -7518,7 +7549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" ht="15.75" customHeight="1">
+    <row r="134" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A134" s="2" t="s">
         <v>529</v>
       </c>
@@ -7547,7 +7578,7 @@
         <v>19</v>
       </c>
       <c r="K134" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="L134" s="2" t="s">
         <v>55</v>
@@ -7556,7 +7587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" ht="15.75" customHeight="1">
+    <row r="135" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A135" s="2" t="s">
         <v>533</v>
       </c>
@@ -7585,7 +7616,7 @@
         <v>19</v>
       </c>
       <c r="K135" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L135" s="2" t="s">
         <v>55</v>
@@ -7594,7 +7625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" ht="15.75" customHeight="1">
+    <row r="136" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A136" s="2" t="s">
         <v>538</v>
       </c>
@@ -7620,7 +7651,7 @@
         <v>48</v>
       </c>
       <c r="K136" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L136" s="2" t="s">
         <v>55</v>
@@ -7629,7 +7660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" ht="15.75" customHeight="1">
+    <row r="137" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A137" s="2" t="s">
         <v>542</v>
       </c>
@@ -7655,7 +7686,7 @@
         <v>48</v>
       </c>
       <c r="K137" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="L137" s="2" t="s">
         <v>55</v>
@@ -7664,7 +7695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" ht="15.75" customHeight="1">
+    <row r="138" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A138" s="2" t="s">
         <v>545</v>
       </c>
@@ -7690,7 +7721,7 @@
         <v>549</v>
       </c>
       <c r="K138" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L138" s="2" t="s">
         <v>55</v>
@@ -7699,7 +7730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" ht="15.75" customHeight="1">
+    <row r="139" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A139" s="2" t="s">
         <v>550</v>
       </c>
@@ -7725,7 +7756,7 @@
         <v>19</v>
       </c>
       <c r="K139" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L139" s="2" t="s">
         <v>55</v>
@@ -7734,7 +7765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" ht="15.75" customHeight="1">
+    <row r="140" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A140" s="2" t="s">
         <v>553</v>
       </c>
@@ -7760,7 +7791,7 @@
         <v>48</v>
       </c>
       <c r="K140" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L140" s="2" t="s">
         <v>55</v>
@@ -7769,7 +7800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" ht="15.75" customHeight="1">
+    <row r="141" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A141" s="2" t="s">
         <v>556</v>
       </c>
@@ -7798,16 +7829,16 @@
         <v>562</v>
       </c>
       <c r="K141" s="3">
-        <v>1.0</v>
+        <v>2</v>
       </c>
       <c r="L141" s="4">
-        <v>45740.0</v>
+        <v>45740</v>
       </c>
       <c r="M141" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="142" ht="15.75" customHeight="1">
+    <row r="142" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A142" s="2" t="s">
         <v>563</v>
       </c>
@@ -7830,7 +7861,7 @@
         <v>54</v>
       </c>
       <c r="K142" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L142" s="2" t="s">
         <v>95</v>
@@ -7839,7 +7870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" ht="15.75" customHeight="1">
+    <row r="143" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A143" s="2" t="s">
         <v>567</v>
       </c>
@@ -7865,16 +7896,16 @@
         <v>54</v>
       </c>
       <c r="K143" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L143" s="4">
-        <v>45740.0</v>
+        <v>45740</v>
       </c>
       <c r="M143" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="144" ht="15.75" customHeight="1">
+    <row r="144" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A144" s="2" t="s">
         <v>570</v>
       </c>
@@ -7903,7 +7934,7 @@
         <v>19</v>
       </c>
       <c r="K144" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="L144" s="2" t="s">
         <v>55</v>
@@ -7912,7 +7943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" ht="15.75" customHeight="1">
+    <row r="145" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A145" s="2" t="s">
         <v>576</v>
       </c>
@@ -7938,7 +7969,7 @@
         <v>48</v>
       </c>
       <c r="K145" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="L145" s="2" t="s">
         <v>55</v>
@@ -7947,7 +7978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" ht="15.75" customHeight="1">
+    <row r="146" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A146" s="2" t="s">
         <v>579</v>
       </c>
@@ -7973,7 +8004,7 @@
         <v>48</v>
       </c>
       <c r="K146" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L146" s="2" t="s">
         <v>55</v>
@@ -7982,7 +8013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" ht="15.75" customHeight="1">
+    <row r="147" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A147" s="2" t="s">
         <v>582</v>
       </c>
@@ -8008,7 +8039,7 @@
         <v>19</v>
       </c>
       <c r="K147" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="L147" s="2" t="s">
         <v>55</v>
@@ -8017,7 +8048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" ht="15.75" customHeight="1">
+    <row r="148" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A148" s="2" t="s">
         <v>585</v>
       </c>
@@ -8043,7 +8074,7 @@
         <v>589</v>
       </c>
       <c r="K148" s="2">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="L148" s="2" t="s">
         <v>55</v>
@@ -8052,7 +8083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" ht="15.75" customHeight="1">
+    <row r="149" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A149" s="2" t="s">
         <v>590</v>
       </c>
@@ -8078,7 +8109,7 @@
         <v>19</v>
       </c>
       <c r="K149" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L149" s="2" t="s">
         <v>55</v>
@@ -8087,7 +8118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" ht="15.75" customHeight="1">
+    <row r="150" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A150" s="2" t="s">
         <v>593</v>
       </c>
@@ -8113,7 +8144,7 @@
         <v>54</v>
       </c>
       <c r="K150" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L150" s="2" t="s">
         <v>55</v>
@@ -8122,7 +8153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" ht="15.75" customHeight="1">
+    <row r="151" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A151" s="2" t="s">
         <v>597</v>
       </c>
@@ -8148,7 +8179,7 @@
         <v>19</v>
       </c>
       <c r="K151" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L151" s="2" t="s">
         <v>55</v>
@@ -8157,7 +8188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" ht="15.75" customHeight="1">
+    <row r="152" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A152" s="2" t="s">
         <v>600</v>
       </c>
@@ -8180,7 +8211,7 @@
         <v>19</v>
       </c>
       <c r="K152" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L152" s="2" t="s">
         <v>55</v>
@@ -8189,7 +8220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" ht="15.75" customHeight="1">
+    <row r="153" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A153" s="2" t="s">
         <v>603</v>
       </c>
@@ -8215,7 +8246,7 @@
         <v>54</v>
       </c>
       <c r="K153" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="L153" s="2" t="s">
         <v>55</v>
@@ -8224,7 +8255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" ht="15.75" customHeight="1">
+    <row r="154" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A154" s="2" t="s">
         <v>606</v>
       </c>
@@ -8253,7 +8284,7 @@
         <v>612</v>
       </c>
       <c r="K154" s="2">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="L154" s="2" t="s">
         <v>55</v>
@@ -8262,7 +8293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" ht="15.75" customHeight="1">
+    <row r="155" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A155" s="2" t="s">
         <v>613</v>
       </c>
@@ -8288,7 +8319,7 @@
         <v>54</v>
       </c>
       <c r="K155" s="2">
-        <v>23.0</v>
+        <v>23</v>
       </c>
       <c r="L155" s="2" t="s">
         <v>55</v>
@@ -8297,7 +8328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" ht="15.75" customHeight="1">
+    <row r="156" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A156" s="2" t="s">
         <v>616</v>
       </c>
@@ -8326,7 +8357,7 @@
         <v>19</v>
       </c>
       <c r="K156" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="L156" s="2" t="s">
         <v>55</v>
@@ -8335,7 +8366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" ht="15.75" customHeight="1">
+    <row r="157" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A157" s="2" t="s">
         <v>619</v>
       </c>
@@ -8361,16 +8392,16 @@
         <v>623</v>
       </c>
       <c r="K157" s="3">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="L157" s="4">
-        <v>45740.0</v>
+        <v>45740</v>
       </c>
       <c r="M157" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="158" ht="15.75" customHeight="1">
+    <row r="158" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A158" s="2" t="s">
         <v>624</v>
       </c>
@@ -8396,7 +8427,7 @@
         <v>54</v>
       </c>
       <c r="K158" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="L158" s="2" t="s">
         <v>55</v>
@@ -8405,7 +8436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" ht="15.75" customHeight="1">
+    <row r="159" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A159" s="2" t="s">
         <v>628</v>
       </c>
@@ -8434,7 +8465,7 @@
         <v>197</v>
       </c>
       <c r="K159" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L159" s="2" t="s">
         <v>55</v>
@@ -8443,7 +8474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" ht="15.75" customHeight="1">
+    <row r="160" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A160" s="2" t="s">
         <v>631</v>
       </c>
@@ -8472,7 +8503,7 @@
         <v>197</v>
       </c>
       <c r="K160" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L160" s="2" t="s">
         <v>55</v>
@@ -8481,7 +8512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" ht="15.75" customHeight="1">
+    <row r="161" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A161" s="2" t="s">
         <v>634</v>
       </c>
@@ -8510,7 +8541,7 @@
         <v>54</v>
       </c>
       <c r="K161" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L161" s="2" t="s">
         <v>55</v>
@@ -8519,7 +8550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" ht="15.75" customHeight="1">
+    <row r="162" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A162" s="2" t="s">
         <v>637</v>
       </c>
@@ -8545,7 +8576,7 @@
         <v>19</v>
       </c>
       <c r="K162" s="2">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="L162" s="2" t="s">
         <v>55</v>
@@ -8554,7 +8585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" ht="15.75" customHeight="1">
+    <row r="163" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A163" s="2" t="s">
         <v>640</v>
       </c>
@@ -8583,16 +8614,16 @@
         <v>197</v>
       </c>
       <c r="K163" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L163" s="4">
-        <v>45741.0</v>
+        <v>45741</v>
       </c>
       <c r="M163" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="164" ht="15.75" customHeight="1">
+    <row r="164" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A164" s="2" t="s">
         <v>645</v>
       </c>
@@ -8618,7 +8649,7 @@
         <v>54</v>
       </c>
       <c r="K164" s="2">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="L164" s="2" t="s">
         <v>55</v>
@@ -8627,7 +8658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" ht="15.75" customHeight="1">
+    <row r="165" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A165" s="2" t="s">
         <v>649</v>
       </c>
@@ -8656,16 +8687,16 @@
         <v>54</v>
       </c>
       <c r="K165" s="3">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="L165" s="4">
-        <v>45741.0</v>
+        <v>45741</v>
       </c>
       <c r="M165" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="166" ht="15.75" customHeight="1">
+    <row r="166" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A166" s="2" t="s">
         <v>652</v>
       </c>
@@ -8694,7 +8725,7 @@
         <v>197</v>
       </c>
       <c r="K166" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L166" s="2" t="s">
         <v>55</v>
@@ -8703,7 +8734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" ht="15.75" customHeight="1">
+    <row r="167" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A167" s="2" t="s">
         <v>655</v>
       </c>
@@ -8729,7 +8760,7 @@
         <v>19</v>
       </c>
       <c r="K167" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L167" s="2" t="s">
         <v>55</v>
@@ -8738,7 +8769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" ht="15.75" customHeight="1">
+    <row r="168" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A168" s="2" t="s">
         <v>659</v>
       </c>
@@ -8764,7 +8795,7 @@
         <v>54</v>
       </c>
       <c r="K168" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L168" s="2" t="s">
         <v>55</v>
@@ -8773,7 +8804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" ht="15.75" customHeight="1">
+    <row r="169" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A169" s="2" t="s">
         <v>663</v>
       </c>
@@ -8799,16 +8830,16 @@
         <v>19</v>
       </c>
       <c r="K169" s="3">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="L169" s="4">
-        <v>45741.0</v>
+        <v>45741</v>
       </c>
       <c r="M169" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="170" ht="15.75" customHeight="1">
+    <row r="170" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A170" s="2" t="s">
         <v>667</v>
       </c>
@@ -8834,16 +8865,16 @@
         <v>197</v>
       </c>
       <c r="K170" s="3">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="L170" s="4">
-        <v>45740.0</v>
+        <v>45740</v>
       </c>
       <c r="M170" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="171" ht="15.75" customHeight="1">
+    <row r="171" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A171" s="2" t="s">
         <v>671</v>
       </c>
@@ -8869,7 +8900,7 @@
         <v>675</v>
       </c>
       <c r="K171" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L171" s="2" t="s">
         <v>55</v>
@@ -8878,7 +8909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" ht="15.75" customHeight="1">
+    <row r="172" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A172" s="2" t="s">
         <v>676</v>
       </c>
@@ -8904,16 +8935,16 @@
         <v>48</v>
       </c>
       <c r="K172" s="3">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="L172" s="4">
-        <v>45740.0</v>
+        <v>45740</v>
       </c>
       <c r="M172" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="173" ht="15.75" customHeight="1">
+    <row r="173" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A173" s="2" t="s">
         <v>679</v>
       </c>
@@ -8939,7 +8970,7 @@
         <v>19</v>
       </c>
       <c r="K173" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="L173" s="2" t="s">
         <v>55</v>
@@ -8948,7 +8979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" ht="15.75" customHeight="1">
+    <row r="174" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A174" s="2" t="s">
         <v>682</v>
       </c>
@@ -8974,16 +9005,16 @@
         <v>687</v>
       </c>
       <c r="K174" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L174" s="4">
-        <v>45740.0</v>
+        <v>45740</v>
       </c>
       <c r="M174" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="175" ht="15.75" customHeight="1">
+    <row r="175" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A175" s="2" t="s">
         <v>688</v>
       </c>
@@ -9009,7 +9040,7 @@
         <v>54</v>
       </c>
       <c r="K175" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L175" s="2" t="s">
         <v>55</v>
@@ -9018,7 +9049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" ht="15.75" customHeight="1">
+    <row r="176" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A176" s="2" t="s">
         <v>691</v>
       </c>
@@ -9047,16 +9078,16 @@
         <v>197</v>
       </c>
       <c r="K176" s="3">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="L176" s="4">
-        <v>45740.0</v>
+        <v>45740</v>
       </c>
       <c r="M176" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="177" ht="15.75" customHeight="1">
+    <row r="177" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A177" s="2" t="s">
         <v>694</v>
       </c>
@@ -9082,16 +9113,16 @@
         <v>699</v>
       </c>
       <c r="K177" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L177" s="4">
-        <v>45741.0</v>
+        <v>45741</v>
       </c>
       <c r="M177" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="178" ht="15.75" customHeight="1">
+    <row r="178" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A178" s="2" t="s">
         <v>700</v>
       </c>
@@ -9120,16 +9151,16 @@
         <v>197</v>
       </c>
       <c r="K178" s="3">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="L178" s="4">
-        <v>45740.0</v>
+        <v>45740</v>
       </c>
       <c r="M178" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="179" ht="15.75" customHeight="1">
+    <row r="179" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A179" s="2" t="s">
         <v>703</v>
       </c>
@@ -9155,7 +9186,7 @@
         <v>19</v>
       </c>
       <c r="K179" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L179" s="2" t="s">
         <v>55</v>
@@ -9164,7 +9195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" ht="15.75" customHeight="1">
+    <row r="180" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A180" s="2" t="s">
         <v>706</v>
       </c>
@@ -9190,7 +9221,7 @@
         <v>48</v>
       </c>
       <c r="K180" s="2">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="L180" s="2" t="s">
         <v>55</v>
@@ -9199,7 +9230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" ht="15.75" customHeight="1">
+    <row r="181" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A181" s="2" t="s">
         <v>709</v>
       </c>
@@ -9222,7 +9253,7 @@
         <v>48</v>
       </c>
       <c r="K181" s="2">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="L181" s="2" t="s">
         <v>95</v>
@@ -9231,7 +9262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" ht="15.75" customHeight="1">
+    <row r="182" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A182" s="2" t="s">
         <v>712</v>
       </c>
@@ -9254,7 +9285,7 @@
         <v>48</v>
       </c>
       <c r="K182" s="2">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="L182" s="2" t="s">
         <v>715</v>
@@ -9263,7 +9294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" ht="15.75" customHeight="1">
+    <row r="183" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A183" s="2" t="s">
         <v>716</v>
       </c>
@@ -9289,7 +9320,7 @@
         <v>48</v>
       </c>
       <c r="K183" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L183" s="2" t="s">
         <v>55</v>
@@ -9298,7 +9329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" ht="15.75" customHeight="1">
+    <row r="184" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A184" s="2" t="s">
         <v>719</v>
       </c>
@@ -9321,7 +9352,7 @@
         <v>48</v>
       </c>
       <c r="K184" s="2">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="L184" s="2" t="s">
         <v>95</v>
@@ -9330,7 +9361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" ht="15.75" customHeight="1">
+    <row r="185" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A185" s="2" t="s">
         <v>722</v>
       </c>
@@ -9356,7 +9387,7 @@
         <v>19</v>
       </c>
       <c r="K185" s="2">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="L185" s="2" t="s">
         <v>55</v>
@@ -9365,7 +9396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" ht="15.75" customHeight="1">
+    <row r="186" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A186" s="2" t="s">
         <v>726</v>
       </c>
@@ -9391,7 +9422,7 @@
         <v>315</v>
       </c>
       <c r="K186" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L186" s="2" t="s">
         <v>55</v>
@@ -9400,7 +9431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" ht="15.75" customHeight="1">
+    <row r="187" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A187" s="2" t="s">
         <v>730</v>
       </c>
@@ -9426,7 +9457,7 @@
         <v>19</v>
       </c>
       <c r="K187" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L187" s="2" t="s">
         <v>55</v>
@@ -9435,7 +9466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" ht="15.75" customHeight="1">
+    <row r="188" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A188" s="2" t="s">
         <v>733</v>
       </c>
@@ -9461,7 +9492,7 @@
         <v>736</v>
       </c>
       <c r="K188" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="L188" s="2" t="s">
         <v>55</v>
@@ -9470,7 +9501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" ht="15.75" customHeight="1">
+    <row r="189" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A189" s="2" t="s">
         <v>737</v>
       </c>
@@ -9499,7 +9530,7 @@
         <v>197</v>
       </c>
       <c r="K189" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L189" s="2" t="s">
         <v>55</v>
@@ -9508,7 +9539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" ht="15.75" customHeight="1">
+    <row r="190" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A190" s="2" t="s">
         <v>740</v>
       </c>
@@ -9534,7 +9565,7 @@
         <v>315</v>
       </c>
       <c r="K190" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L190" s="2" t="s">
         <v>55</v>
@@ -9543,7 +9574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" ht="15.75" customHeight="1">
+    <row r="191" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A191" s="2" t="s">
         <v>743</v>
       </c>
@@ -9569,7 +9600,7 @@
         <v>315</v>
       </c>
       <c r="K191" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L191" s="2" t="s">
         <v>55</v>
@@ -9578,7 +9609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" ht="15.75" customHeight="1">
+    <row r="192" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A192" s="2" t="s">
         <v>746</v>
       </c>
@@ -9601,7 +9632,7 @@
         <v>315</v>
       </c>
       <c r="K192" s="2">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="L192" s="2" t="s">
         <v>749</v>
@@ -9610,7 +9641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" ht="15.75" customHeight="1">
+    <row r="193" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A193" s="2" t="s">
         <v>750</v>
       </c>
@@ -9636,7 +9667,7 @@
         <v>19</v>
       </c>
       <c r="K193" s="2">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="L193" s="2" t="s">
         <v>753</v>
@@ -9645,7 +9676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" ht="15.75" customHeight="1">
+    <row r="194" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A194" s="2" t="s">
         <v>754</v>
       </c>
@@ -9668,7 +9699,7 @@
         <v>315</v>
       </c>
       <c r="K194" s="2">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="L194" s="2" t="s">
         <v>95</v>
@@ -9677,7 +9708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" ht="15.75" customHeight="1">
+    <row r="195" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A195" s="2" t="s">
         <v>757</v>
       </c>
@@ -9703,7 +9734,7 @@
         <v>48</v>
       </c>
       <c r="K195" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L195" s="2" t="s">
         <v>55</v>
@@ -9712,7 +9743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" ht="15.75" customHeight="1">
+    <row r="196" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A196" s="2" t="s">
         <v>761</v>
       </c>
@@ -9738,7 +9769,7 @@
         <v>315</v>
       </c>
       <c r="K196" s="2">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="L196" s="2" t="s">
         <v>49</v>
@@ -9747,7 +9778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" ht="15.75" customHeight="1">
+    <row r="197" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A197" s="2" t="s">
         <v>764</v>
       </c>
@@ -9773,7 +9804,7 @@
         <v>767</v>
       </c>
       <c r="K197" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L197" s="2" t="s">
         <v>55</v>
@@ -9782,7 +9813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" ht="15.75" customHeight="1">
+    <row r="198" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A198" s="2" t="s">
         <v>768</v>
       </c>
@@ -9805,7 +9836,7 @@
         <v>315</v>
       </c>
       <c r="K198" s="2">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="L198" s="2" t="s">
         <v>749</v>
@@ -9814,7 +9845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" ht="15.75" customHeight="1">
+    <row r="199" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A199" s="2" t="s">
         <v>771</v>
       </c>
@@ -9840,7 +9871,7 @@
         <v>774</v>
       </c>
       <c r="K199" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L199" s="2" t="s">
         <v>55</v>
@@ -9849,7 +9880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" ht="15.75" customHeight="1">
+    <row r="200" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A200" s="2" t="s">
         <v>775</v>
       </c>
@@ -9872,7 +9903,7 @@
         <v>315</v>
       </c>
       <c r="K200" s="2">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="L200" s="2" t="s">
         <v>778</v>
@@ -9881,7 +9912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" ht="15.75" customHeight="1">
+    <row r="201" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A201" s="2" t="s">
         <v>779</v>
       </c>
@@ -9907,7 +9938,7 @@
         <v>774</v>
       </c>
       <c r="K201" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L201" s="2" t="s">
         <v>55</v>
@@ -9916,7 +9947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" ht="15.75" customHeight="1">
+    <row r="202" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A202" s="2" t="s">
         <v>782</v>
       </c>
@@ -9939,7 +9970,7 @@
         <v>315</v>
       </c>
       <c r="K202" s="2">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="L202" s="2" t="s">
         <v>31</v>
@@ -9948,7 +9979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" ht="15.75" customHeight="1">
+    <row r="203" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A203" s="2" t="s">
         <v>785</v>
       </c>
@@ -9977,7 +10008,7 @@
         <v>19</v>
       </c>
       <c r="K203" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L203" s="2" t="s">
         <v>55</v>
@@ -9986,7 +10017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" ht="15.75" customHeight="1">
+    <row r="204" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A204" s="2" t="s">
         <v>790</v>
       </c>
@@ -10012,7 +10043,7 @@
         <v>315</v>
       </c>
       <c r="K204" s="2">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="L204" s="2" t="s">
         <v>43</v>
@@ -10021,7 +10052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" ht="15.75" customHeight="1">
+    <row r="205" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A205" s="2" t="s">
         <v>793</v>
       </c>
@@ -10050,7 +10081,7 @@
         <v>19</v>
       </c>
       <c r="K205" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="L205" s="2" t="s">
         <v>797</v>
@@ -10059,7 +10090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" ht="15.75" customHeight="1">
+    <row r="206" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A206" s="2" t="s">
         <v>798</v>
       </c>
@@ -10082,7 +10113,7 @@
         <v>315</v>
       </c>
       <c r="K206" s="2">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="L206" s="2" t="s">
         <v>55</v>
@@ -10091,7 +10122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" ht="15.75" customHeight="1">
+    <row r="207" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A207" s="2" t="s">
         <v>801</v>
       </c>
@@ -10117,7 +10148,7 @@
         <v>19</v>
       </c>
       <c r="K207" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L207" s="2" t="s">
         <v>55</v>
@@ -10126,7 +10157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" ht="15.75" customHeight="1">
+    <row r="208" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A208" s="2" t="s">
         <v>804</v>
       </c>
@@ -10149,7 +10180,7 @@
         <v>315</v>
       </c>
       <c r="K208" s="2">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="L208" s="2" t="s">
         <v>31</v>
@@ -10158,7 +10189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" ht="15.75" customHeight="1">
+    <row r="209" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A209" s="2" t="s">
         <v>807</v>
       </c>
@@ -10184,7 +10215,7 @@
         <v>315</v>
       </c>
       <c r="K209" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L209" s="2" t="s">
         <v>55</v>
@@ -10193,7 +10224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" ht="15.75" customHeight="1">
+    <row r="210" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A210" s="2" t="s">
         <v>811</v>
       </c>
@@ -10216,7 +10247,7 @@
         <v>315</v>
       </c>
       <c r="K210" s="2">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="L210" s="2" t="s">
         <v>814</v>
@@ -10225,7 +10256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" ht="15.75" customHeight="1">
+    <row r="211" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A211" s="2" t="s">
         <v>815</v>
       </c>
@@ -10248,809 +10279,808 @@
         <v>54</v>
       </c>
       <c r="K211" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L211" s="4">
-        <v>45741.0</v>
+        <v>45741</v>
       </c>
       <c r="M211" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="212" ht="15.75" customHeight="1"/>
-    <row r="213" ht="15.75" customHeight="1"/>
-    <row r="214" ht="15.75" customHeight="1"/>
-    <row r="215" ht="15.75" customHeight="1"/>
-    <row r="216" ht="15.75" customHeight="1"/>
-    <row r="217" ht="15.75" customHeight="1"/>
-    <row r="218" ht="15.75" customHeight="1"/>
-    <row r="219" ht="15.75" customHeight="1"/>
-    <row r="220" ht="15.75" customHeight="1"/>
-    <row r="221" ht="15.75" customHeight="1"/>
-    <row r="222" ht="15.75" customHeight="1"/>
-    <row r="223" ht="15.75" customHeight="1"/>
-    <row r="224" ht="15.75" customHeight="1"/>
-    <row r="225" ht="15.75" customHeight="1"/>
-    <row r="226" ht="15.75" customHeight="1"/>
-    <row r="227" ht="15.75" customHeight="1"/>
-    <row r="228" ht="15.75" customHeight="1"/>
-    <row r="229" ht="15.75" customHeight="1"/>
-    <row r="230" ht="15.75" customHeight="1"/>
-    <row r="231" ht="15.75" customHeight="1"/>
-    <row r="232" ht="15.75" customHeight="1"/>
-    <row r="233" ht="15.75" customHeight="1"/>
-    <row r="234" ht="15.75" customHeight="1"/>
-    <row r="235" ht="15.75" customHeight="1"/>
-    <row r="236" ht="15.75" customHeight="1"/>
-    <row r="237" ht="15.75" customHeight="1"/>
-    <row r="238" ht="15.75" customHeight="1"/>
-    <row r="239" ht="15.75" customHeight="1"/>
-    <row r="240" ht="15.75" customHeight="1"/>
-    <row r="241" ht="15.75" customHeight="1"/>
-    <row r="242" ht="15.75" customHeight="1"/>
-    <row r="243" ht="15.75" customHeight="1"/>
-    <row r="244" ht="15.75" customHeight="1"/>
-    <row r="245" ht="15.75" customHeight="1"/>
-    <row r="246" ht="15.75" customHeight="1"/>
-    <row r="247" ht="15.75" customHeight="1"/>
-    <row r="248" ht="15.75" customHeight="1"/>
-    <row r="249" ht="15.75" customHeight="1"/>
-    <row r="250" ht="15.75" customHeight="1"/>
-    <row r="251" ht="15.75" customHeight="1"/>
-    <row r="252" ht="15.75" customHeight="1"/>
-    <row r="253" ht="15.75" customHeight="1"/>
-    <row r="254" ht="15.75" customHeight="1"/>
-    <row r="255" ht="15.75" customHeight="1"/>
-    <row r="256" ht="15.75" customHeight="1"/>
-    <row r="257" ht="15.75" customHeight="1"/>
-    <row r="258" ht="15.75" customHeight="1"/>
-    <row r="259" ht="15.75" customHeight="1"/>
-    <row r="260" ht="15.75" customHeight="1"/>
-    <row r="261" ht="15.75" customHeight="1"/>
-    <row r="262" ht="15.75" customHeight="1"/>
-    <row r="263" ht="15.75" customHeight="1"/>
-    <row r="264" ht="15.75" customHeight="1"/>
-    <row r="265" ht="15.75" customHeight="1"/>
-    <row r="266" ht="15.75" customHeight="1"/>
-    <row r="267" ht="15.75" customHeight="1"/>
-    <row r="268" ht="15.75" customHeight="1"/>
-    <row r="269" ht="15.75" customHeight="1"/>
-    <row r="270" ht="15.75" customHeight="1"/>
-    <row r="271" ht="15.75" customHeight="1"/>
-    <row r="272" ht="15.75" customHeight="1"/>
-    <row r="273" ht="15.75" customHeight="1"/>
-    <row r="274" ht="15.75" customHeight="1"/>
-    <row r="275" ht="15.75" customHeight="1"/>
-    <row r="276" ht="15.75" customHeight="1"/>
-    <row r="277" ht="15.75" customHeight="1"/>
-    <row r="278" ht="15.75" customHeight="1"/>
-    <row r="279" ht="15.75" customHeight="1"/>
-    <row r="280" ht="15.75" customHeight="1"/>
-    <row r="281" ht="15.75" customHeight="1"/>
-    <row r="282" ht="15.75" customHeight="1"/>
-    <row r="283" ht="15.75" customHeight="1"/>
-    <row r="284" ht="15.75" customHeight="1"/>
-    <row r="285" ht="15.75" customHeight="1"/>
-    <row r="286" ht="15.75" customHeight="1"/>
-    <row r="287" ht="15.75" customHeight="1"/>
-    <row r="288" ht="15.75" customHeight="1"/>
-    <row r="289" ht="15.75" customHeight="1"/>
-    <row r="290" ht="15.75" customHeight="1"/>
-    <row r="291" ht="15.75" customHeight="1"/>
-    <row r="292" ht="15.75" customHeight="1"/>
-    <row r="293" ht="15.75" customHeight="1"/>
-    <row r="294" ht="15.75" customHeight="1"/>
-    <row r="295" ht="15.75" customHeight="1"/>
-    <row r="296" ht="15.75" customHeight="1"/>
-    <row r="297" ht="15.75" customHeight="1"/>
-    <row r="298" ht="15.75" customHeight="1"/>
-    <row r="299" ht="15.75" customHeight="1"/>
-    <row r="300" ht="15.75" customHeight="1"/>
-    <row r="301" ht="15.75" customHeight="1"/>
-    <row r="302" ht="15.75" customHeight="1"/>
-    <row r="303" ht="15.75" customHeight="1"/>
-    <row r="304" ht="15.75" customHeight="1"/>
-    <row r="305" ht="15.75" customHeight="1"/>
-    <row r="306" ht="15.75" customHeight="1"/>
-    <row r="307" ht="15.75" customHeight="1"/>
-    <row r="308" ht="15.75" customHeight="1"/>
-    <row r="309" ht="15.75" customHeight="1"/>
-    <row r="310" ht="15.75" customHeight="1"/>
-    <row r="311" ht="15.75" customHeight="1"/>
-    <row r="312" ht="15.75" customHeight="1"/>
-    <row r="313" ht="15.75" customHeight="1"/>
-    <row r="314" ht="15.75" customHeight="1"/>
-    <row r="315" ht="15.75" customHeight="1"/>
-    <row r="316" ht="15.75" customHeight="1"/>
-    <row r="317" ht="15.75" customHeight="1"/>
-    <row r="318" ht="15.75" customHeight="1"/>
-    <row r="319" ht="15.75" customHeight="1"/>
-    <row r="320" ht="15.75" customHeight="1"/>
-    <row r="321" ht="15.75" customHeight="1"/>
-    <row r="322" ht="15.75" customHeight="1"/>
-    <row r="323" ht="15.75" customHeight="1"/>
-    <row r="324" ht="15.75" customHeight="1"/>
-    <row r="325" ht="15.75" customHeight="1"/>
-    <row r="326" ht="15.75" customHeight="1"/>
-    <row r="327" ht="15.75" customHeight="1"/>
-    <row r="328" ht="15.75" customHeight="1"/>
-    <row r="329" ht="15.75" customHeight="1"/>
-    <row r="330" ht="15.75" customHeight="1"/>
-    <row r="331" ht="15.75" customHeight="1"/>
-    <row r="332" ht="15.75" customHeight="1"/>
-    <row r="333" ht="15.75" customHeight="1"/>
-    <row r="334" ht="15.75" customHeight="1"/>
-    <row r="335" ht="15.75" customHeight="1"/>
-    <row r="336" ht="15.75" customHeight="1"/>
-    <row r="337" ht="15.75" customHeight="1"/>
-    <row r="338" ht="15.75" customHeight="1"/>
-    <row r="339" ht="15.75" customHeight="1"/>
-    <row r="340" ht="15.75" customHeight="1"/>
-    <row r="341" ht="15.75" customHeight="1"/>
-    <row r="342" ht="15.75" customHeight="1"/>
-    <row r="343" ht="15.75" customHeight="1"/>
-    <row r="344" ht="15.75" customHeight="1"/>
-    <row r="345" ht="15.75" customHeight="1"/>
-    <row r="346" ht="15.75" customHeight="1"/>
-    <row r="347" ht="15.75" customHeight="1"/>
-    <row r="348" ht="15.75" customHeight="1"/>
-    <row r="349" ht="15.75" customHeight="1"/>
-    <row r="350" ht="15.75" customHeight="1"/>
-    <row r="351" ht="15.75" customHeight="1"/>
-    <row r="352" ht="15.75" customHeight="1"/>
-    <row r="353" ht="15.75" customHeight="1"/>
-    <row r="354" ht="15.75" customHeight="1"/>
-    <row r="355" ht="15.75" customHeight="1"/>
-    <row r="356" ht="15.75" customHeight="1"/>
-    <row r="357" ht="15.75" customHeight="1"/>
-    <row r="358" ht="15.75" customHeight="1"/>
-    <row r="359" ht="15.75" customHeight="1"/>
-    <row r="360" ht="15.75" customHeight="1"/>
-    <row r="361" ht="15.75" customHeight="1"/>
-    <row r="362" ht="15.75" customHeight="1"/>
-    <row r="363" ht="15.75" customHeight="1"/>
-    <row r="364" ht="15.75" customHeight="1"/>
-    <row r="365" ht="15.75" customHeight="1"/>
-    <row r="366" ht="15.75" customHeight="1"/>
-    <row r="367" ht="15.75" customHeight="1"/>
-    <row r="368" ht="15.75" customHeight="1"/>
-    <row r="369" ht="15.75" customHeight="1"/>
-    <row r="370" ht="15.75" customHeight="1"/>
-    <row r="371" ht="15.75" customHeight="1"/>
-    <row r="372" ht="15.75" customHeight="1"/>
-    <row r="373" ht="15.75" customHeight="1"/>
-    <row r="374" ht="15.75" customHeight="1"/>
-    <row r="375" ht="15.75" customHeight="1"/>
-    <row r="376" ht="15.75" customHeight="1"/>
-    <row r="377" ht="15.75" customHeight="1"/>
-    <row r="378" ht="15.75" customHeight="1"/>
-    <row r="379" ht="15.75" customHeight="1"/>
-    <row r="380" ht="15.75" customHeight="1"/>
-    <row r="381" ht="15.75" customHeight="1"/>
-    <row r="382" ht="15.75" customHeight="1"/>
-    <row r="383" ht="15.75" customHeight="1"/>
-    <row r="384" ht="15.75" customHeight="1"/>
-    <row r="385" ht="15.75" customHeight="1"/>
-    <row r="386" ht="15.75" customHeight="1"/>
-    <row r="387" ht="15.75" customHeight="1"/>
-    <row r="388" ht="15.75" customHeight="1"/>
-    <row r="389" ht="15.75" customHeight="1"/>
-    <row r="390" ht="15.75" customHeight="1"/>
-    <row r="391" ht="15.75" customHeight="1"/>
-    <row r="392" ht="15.75" customHeight="1"/>
-    <row r="393" ht="15.75" customHeight="1"/>
-    <row r="394" ht="15.75" customHeight="1"/>
-    <row r="395" ht="15.75" customHeight="1"/>
-    <row r="396" ht="15.75" customHeight="1"/>
-    <row r="397" ht="15.75" customHeight="1"/>
-    <row r="398" ht="15.75" customHeight="1"/>
-    <row r="399" ht="15.75" customHeight="1"/>
-    <row r="400" ht="15.75" customHeight="1"/>
-    <row r="401" ht="15.75" customHeight="1"/>
-    <row r="402" ht="15.75" customHeight="1"/>
-    <row r="403" ht="15.75" customHeight="1"/>
-    <row r="404" ht="15.75" customHeight="1"/>
-    <row r="405" ht="15.75" customHeight="1"/>
-    <row r="406" ht="15.75" customHeight="1"/>
-    <row r="407" ht="15.75" customHeight="1"/>
-    <row r="408" ht="15.75" customHeight="1"/>
-    <row r="409" ht="15.75" customHeight="1"/>
-    <row r="410" ht="15.75" customHeight="1"/>
-    <row r="411" ht="15.75" customHeight="1"/>
-    <row r="412" ht="15.75" customHeight="1"/>
-    <row r="413" ht="15.75" customHeight="1"/>
-    <row r="414" ht="15.75" customHeight="1"/>
-    <row r="415" ht="15.75" customHeight="1"/>
-    <row r="416" ht="15.75" customHeight="1"/>
-    <row r="417" ht="15.75" customHeight="1"/>
-    <row r="418" ht="15.75" customHeight="1"/>
-    <row r="419" ht="15.75" customHeight="1"/>
-    <row r="420" ht="15.75" customHeight="1"/>
-    <row r="421" ht="15.75" customHeight="1"/>
-    <row r="422" ht="15.75" customHeight="1"/>
-    <row r="423" ht="15.75" customHeight="1"/>
-    <row r="424" ht="15.75" customHeight="1"/>
-    <row r="425" ht="15.75" customHeight="1"/>
-    <row r="426" ht="15.75" customHeight="1"/>
-    <row r="427" ht="15.75" customHeight="1"/>
-    <row r="428" ht="15.75" customHeight="1"/>
-    <row r="429" ht="15.75" customHeight="1"/>
-    <row r="430" ht="15.75" customHeight="1"/>
-    <row r="431" ht="15.75" customHeight="1"/>
-    <row r="432" ht="15.75" customHeight="1"/>
-    <row r="433" ht="15.75" customHeight="1"/>
-    <row r="434" ht="15.75" customHeight="1"/>
-    <row r="435" ht="15.75" customHeight="1"/>
-    <row r="436" ht="15.75" customHeight="1"/>
-    <row r="437" ht="15.75" customHeight="1"/>
-    <row r="438" ht="15.75" customHeight="1"/>
-    <row r="439" ht="15.75" customHeight="1"/>
-    <row r="440" ht="15.75" customHeight="1"/>
-    <row r="441" ht="15.75" customHeight="1"/>
-    <row r="442" ht="15.75" customHeight="1"/>
-    <row r="443" ht="15.75" customHeight="1"/>
-    <row r="444" ht="15.75" customHeight="1"/>
-    <row r="445" ht="15.75" customHeight="1"/>
-    <row r="446" ht="15.75" customHeight="1"/>
-    <row r="447" ht="15.75" customHeight="1"/>
-    <row r="448" ht="15.75" customHeight="1"/>
-    <row r="449" ht="15.75" customHeight="1"/>
-    <row r="450" ht="15.75" customHeight="1"/>
-    <row r="451" ht="15.75" customHeight="1"/>
-    <row r="452" ht="15.75" customHeight="1"/>
-    <row r="453" ht="15.75" customHeight="1"/>
-    <row r="454" ht="15.75" customHeight="1"/>
-    <row r="455" ht="15.75" customHeight="1"/>
-    <row r="456" ht="15.75" customHeight="1"/>
-    <row r="457" ht="15.75" customHeight="1"/>
-    <row r="458" ht="15.75" customHeight="1"/>
-    <row r="459" ht="15.75" customHeight="1"/>
-    <row r="460" ht="15.75" customHeight="1"/>
-    <row r="461" ht="15.75" customHeight="1"/>
-    <row r="462" ht="15.75" customHeight="1"/>
-    <row r="463" ht="15.75" customHeight="1"/>
-    <row r="464" ht="15.75" customHeight="1"/>
-    <row r="465" ht="15.75" customHeight="1"/>
-    <row r="466" ht="15.75" customHeight="1"/>
-    <row r="467" ht="15.75" customHeight="1"/>
-    <row r="468" ht="15.75" customHeight="1"/>
-    <row r="469" ht="15.75" customHeight="1"/>
-    <row r="470" ht="15.75" customHeight="1"/>
-    <row r="471" ht="15.75" customHeight="1"/>
-    <row r="472" ht="15.75" customHeight="1"/>
-    <row r="473" ht="15.75" customHeight="1"/>
-    <row r="474" ht="15.75" customHeight="1"/>
-    <row r="475" ht="15.75" customHeight="1"/>
-    <row r="476" ht="15.75" customHeight="1"/>
-    <row r="477" ht="15.75" customHeight="1"/>
-    <row r="478" ht="15.75" customHeight="1"/>
-    <row r="479" ht="15.75" customHeight="1"/>
-    <row r="480" ht="15.75" customHeight="1"/>
-    <row r="481" ht="15.75" customHeight="1"/>
-    <row r="482" ht="15.75" customHeight="1"/>
-    <row r="483" ht="15.75" customHeight="1"/>
-    <row r="484" ht="15.75" customHeight="1"/>
-    <row r="485" ht="15.75" customHeight="1"/>
-    <row r="486" ht="15.75" customHeight="1"/>
-    <row r="487" ht="15.75" customHeight="1"/>
-    <row r="488" ht="15.75" customHeight="1"/>
-    <row r="489" ht="15.75" customHeight="1"/>
-    <row r="490" ht="15.75" customHeight="1"/>
-    <row r="491" ht="15.75" customHeight="1"/>
-    <row r="492" ht="15.75" customHeight="1"/>
-    <row r="493" ht="15.75" customHeight="1"/>
-    <row r="494" ht="15.75" customHeight="1"/>
-    <row r="495" ht="15.75" customHeight="1"/>
-    <row r="496" ht="15.75" customHeight="1"/>
-    <row r="497" ht="15.75" customHeight="1"/>
-    <row r="498" ht="15.75" customHeight="1"/>
-    <row r="499" ht="15.75" customHeight="1"/>
-    <row r="500" ht="15.75" customHeight="1"/>
-    <row r="501" ht="15.75" customHeight="1"/>
-    <row r="502" ht="15.75" customHeight="1"/>
-    <row r="503" ht="15.75" customHeight="1"/>
-    <row r="504" ht="15.75" customHeight="1"/>
-    <row r="505" ht="15.75" customHeight="1"/>
-    <row r="506" ht="15.75" customHeight="1"/>
-    <row r="507" ht="15.75" customHeight="1"/>
-    <row r="508" ht="15.75" customHeight="1"/>
-    <row r="509" ht="15.75" customHeight="1"/>
-    <row r="510" ht="15.75" customHeight="1"/>
-    <row r="511" ht="15.75" customHeight="1"/>
-    <row r="512" ht="15.75" customHeight="1"/>
-    <row r="513" ht="15.75" customHeight="1"/>
-    <row r="514" ht="15.75" customHeight="1"/>
-    <row r="515" ht="15.75" customHeight="1"/>
-    <row r="516" ht="15.75" customHeight="1"/>
-    <row r="517" ht="15.75" customHeight="1"/>
-    <row r="518" ht="15.75" customHeight="1"/>
-    <row r="519" ht="15.75" customHeight="1"/>
-    <row r="520" ht="15.75" customHeight="1"/>
-    <row r="521" ht="15.75" customHeight="1"/>
-    <row r="522" ht="15.75" customHeight="1"/>
-    <row r="523" ht="15.75" customHeight="1"/>
-    <row r="524" ht="15.75" customHeight="1"/>
-    <row r="525" ht="15.75" customHeight="1"/>
-    <row r="526" ht="15.75" customHeight="1"/>
-    <row r="527" ht="15.75" customHeight="1"/>
-    <row r="528" ht="15.75" customHeight="1"/>
-    <row r="529" ht="15.75" customHeight="1"/>
-    <row r="530" ht="15.75" customHeight="1"/>
-    <row r="531" ht="15.75" customHeight="1"/>
-    <row r="532" ht="15.75" customHeight="1"/>
-    <row r="533" ht="15.75" customHeight="1"/>
-    <row r="534" ht="15.75" customHeight="1"/>
-    <row r="535" ht="15.75" customHeight="1"/>
-    <row r="536" ht="15.75" customHeight="1"/>
-    <row r="537" ht="15.75" customHeight="1"/>
-    <row r="538" ht="15.75" customHeight="1"/>
-    <row r="539" ht="15.75" customHeight="1"/>
-    <row r="540" ht="15.75" customHeight="1"/>
-    <row r="541" ht="15.75" customHeight="1"/>
-    <row r="542" ht="15.75" customHeight="1"/>
-    <row r="543" ht="15.75" customHeight="1"/>
-    <row r="544" ht="15.75" customHeight="1"/>
-    <row r="545" ht="15.75" customHeight="1"/>
-    <row r="546" ht="15.75" customHeight="1"/>
-    <row r="547" ht="15.75" customHeight="1"/>
-    <row r="548" ht="15.75" customHeight="1"/>
-    <row r="549" ht="15.75" customHeight="1"/>
-    <row r="550" ht="15.75" customHeight="1"/>
-    <row r="551" ht="15.75" customHeight="1"/>
-    <row r="552" ht="15.75" customHeight="1"/>
-    <row r="553" ht="15.75" customHeight="1"/>
-    <row r="554" ht="15.75" customHeight="1"/>
-    <row r="555" ht="15.75" customHeight="1"/>
-    <row r="556" ht="15.75" customHeight="1"/>
-    <row r="557" ht="15.75" customHeight="1"/>
-    <row r="558" ht="15.75" customHeight="1"/>
-    <row r="559" ht="15.75" customHeight="1"/>
-    <row r="560" ht="15.75" customHeight="1"/>
-    <row r="561" ht="15.75" customHeight="1"/>
-    <row r="562" ht="15.75" customHeight="1"/>
-    <row r="563" ht="15.75" customHeight="1"/>
-    <row r="564" ht="15.75" customHeight="1"/>
-    <row r="565" ht="15.75" customHeight="1"/>
-    <row r="566" ht="15.75" customHeight="1"/>
-    <row r="567" ht="15.75" customHeight="1"/>
-    <row r="568" ht="15.75" customHeight="1"/>
-    <row r="569" ht="15.75" customHeight="1"/>
-    <row r="570" ht="15.75" customHeight="1"/>
-    <row r="571" ht="15.75" customHeight="1"/>
-    <row r="572" ht="15.75" customHeight="1"/>
-    <row r="573" ht="15.75" customHeight="1"/>
-    <row r="574" ht="15.75" customHeight="1"/>
-    <row r="575" ht="15.75" customHeight="1"/>
-    <row r="576" ht="15.75" customHeight="1"/>
-    <row r="577" ht="15.75" customHeight="1"/>
-    <row r="578" ht="15.75" customHeight="1"/>
-    <row r="579" ht="15.75" customHeight="1"/>
-    <row r="580" ht="15.75" customHeight="1"/>
-    <row r="581" ht="15.75" customHeight="1"/>
-    <row r="582" ht="15.75" customHeight="1"/>
-    <row r="583" ht="15.75" customHeight="1"/>
-    <row r="584" ht="15.75" customHeight="1"/>
-    <row r="585" ht="15.75" customHeight="1"/>
-    <row r="586" ht="15.75" customHeight="1"/>
-    <row r="587" ht="15.75" customHeight="1"/>
-    <row r="588" ht="15.75" customHeight="1"/>
-    <row r="589" ht="15.75" customHeight="1"/>
-    <row r="590" ht="15.75" customHeight="1"/>
-    <row r="591" ht="15.75" customHeight="1"/>
-    <row r="592" ht="15.75" customHeight="1"/>
-    <row r="593" ht="15.75" customHeight="1"/>
-    <row r="594" ht="15.75" customHeight="1"/>
-    <row r="595" ht="15.75" customHeight="1"/>
-    <row r="596" ht="15.75" customHeight="1"/>
-    <row r="597" ht="15.75" customHeight="1"/>
-    <row r="598" ht="15.75" customHeight="1"/>
-    <row r="599" ht="15.75" customHeight="1"/>
-    <row r="600" ht="15.75" customHeight="1"/>
-    <row r="601" ht="15.75" customHeight="1"/>
-    <row r="602" ht="15.75" customHeight="1"/>
-    <row r="603" ht="15.75" customHeight="1"/>
-    <row r="604" ht="15.75" customHeight="1"/>
-    <row r="605" ht="15.75" customHeight="1"/>
-    <row r="606" ht="15.75" customHeight="1"/>
-    <row r="607" ht="15.75" customHeight="1"/>
-    <row r="608" ht="15.75" customHeight="1"/>
-    <row r="609" ht="15.75" customHeight="1"/>
-    <row r="610" ht="15.75" customHeight="1"/>
-    <row r="611" ht="15.75" customHeight="1"/>
-    <row r="612" ht="15.75" customHeight="1"/>
-    <row r="613" ht="15.75" customHeight="1"/>
-    <row r="614" ht="15.75" customHeight="1"/>
-    <row r="615" ht="15.75" customHeight="1"/>
-    <row r="616" ht="15.75" customHeight="1"/>
-    <row r="617" ht="15.75" customHeight="1"/>
-    <row r="618" ht="15.75" customHeight="1"/>
-    <row r="619" ht="15.75" customHeight="1"/>
-    <row r="620" ht="15.75" customHeight="1"/>
-    <row r="621" ht="15.75" customHeight="1"/>
-    <row r="622" ht="15.75" customHeight="1"/>
-    <row r="623" ht="15.75" customHeight="1"/>
-    <row r="624" ht="15.75" customHeight="1"/>
-    <row r="625" ht="15.75" customHeight="1"/>
-    <row r="626" ht="15.75" customHeight="1"/>
-    <row r="627" ht="15.75" customHeight="1"/>
-    <row r="628" ht="15.75" customHeight="1"/>
-    <row r="629" ht="15.75" customHeight="1"/>
-    <row r="630" ht="15.75" customHeight="1"/>
-    <row r="631" ht="15.75" customHeight="1"/>
-    <row r="632" ht="15.75" customHeight="1"/>
-    <row r="633" ht="15.75" customHeight="1"/>
-    <row r="634" ht="15.75" customHeight="1"/>
-    <row r="635" ht="15.75" customHeight="1"/>
-    <row r="636" ht="15.75" customHeight="1"/>
-    <row r="637" ht="15.75" customHeight="1"/>
-    <row r="638" ht="15.75" customHeight="1"/>
-    <row r="639" ht="15.75" customHeight="1"/>
-    <row r="640" ht="15.75" customHeight="1"/>
-    <row r="641" ht="15.75" customHeight="1"/>
-    <row r="642" ht="15.75" customHeight="1"/>
-    <row r="643" ht="15.75" customHeight="1"/>
-    <row r="644" ht="15.75" customHeight="1"/>
-    <row r="645" ht="15.75" customHeight="1"/>
-    <row r="646" ht="15.75" customHeight="1"/>
-    <row r="647" ht="15.75" customHeight="1"/>
-    <row r="648" ht="15.75" customHeight="1"/>
-    <row r="649" ht="15.75" customHeight="1"/>
-    <row r="650" ht="15.75" customHeight="1"/>
-    <row r="651" ht="15.75" customHeight="1"/>
-    <row r="652" ht="15.75" customHeight="1"/>
-    <row r="653" ht="15.75" customHeight="1"/>
-    <row r="654" ht="15.75" customHeight="1"/>
-    <row r="655" ht="15.75" customHeight="1"/>
-    <row r="656" ht="15.75" customHeight="1"/>
-    <row r="657" ht="15.75" customHeight="1"/>
-    <row r="658" ht="15.75" customHeight="1"/>
-    <row r="659" ht="15.75" customHeight="1"/>
-    <row r="660" ht="15.75" customHeight="1"/>
-    <row r="661" ht="15.75" customHeight="1"/>
-    <row r="662" ht="15.75" customHeight="1"/>
-    <row r="663" ht="15.75" customHeight="1"/>
-    <row r="664" ht="15.75" customHeight="1"/>
-    <row r="665" ht="15.75" customHeight="1"/>
-    <row r="666" ht="15.75" customHeight="1"/>
-    <row r="667" ht="15.75" customHeight="1"/>
-    <row r="668" ht="15.75" customHeight="1"/>
-    <row r="669" ht="15.75" customHeight="1"/>
-    <row r="670" ht="15.75" customHeight="1"/>
-    <row r="671" ht="15.75" customHeight="1"/>
-    <row r="672" ht="15.75" customHeight="1"/>
-    <row r="673" ht="15.75" customHeight="1"/>
-    <row r="674" ht="15.75" customHeight="1"/>
-    <row r="675" ht="15.75" customHeight="1"/>
-    <row r="676" ht="15.75" customHeight="1"/>
-    <row r="677" ht="15.75" customHeight="1"/>
-    <row r="678" ht="15.75" customHeight="1"/>
-    <row r="679" ht="15.75" customHeight="1"/>
-    <row r="680" ht="15.75" customHeight="1"/>
-    <row r="681" ht="15.75" customHeight="1"/>
-    <row r="682" ht="15.75" customHeight="1"/>
-    <row r="683" ht="15.75" customHeight="1"/>
-    <row r="684" ht="15.75" customHeight="1"/>
-    <row r="685" ht="15.75" customHeight="1"/>
-    <row r="686" ht="15.75" customHeight="1"/>
-    <row r="687" ht="15.75" customHeight="1"/>
-    <row r="688" ht="15.75" customHeight="1"/>
-    <row r="689" ht="15.75" customHeight="1"/>
-    <row r="690" ht="15.75" customHeight="1"/>
-    <row r="691" ht="15.75" customHeight="1"/>
-    <row r="692" ht="15.75" customHeight="1"/>
-    <row r="693" ht="15.75" customHeight="1"/>
-    <row r="694" ht="15.75" customHeight="1"/>
-    <row r="695" ht="15.75" customHeight="1"/>
-    <row r="696" ht="15.75" customHeight="1"/>
-    <row r="697" ht="15.75" customHeight="1"/>
-    <row r="698" ht="15.75" customHeight="1"/>
-    <row r="699" ht="15.75" customHeight="1"/>
-    <row r="700" ht="15.75" customHeight="1"/>
-    <row r="701" ht="15.75" customHeight="1"/>
-    <row r="702" ht="15.75" customHeight="1"/>
-    <row r="703" ht="15.75" customHeight="1"/>
-    <row r="704" ht="15.75" customHeight="1"/>
-    <row r="705" ht="15.75" customHeight="1"/>
-    <row r="706" ht="15.75" customHeight="1"/>
-    <row r="707" ht="15.75" customHeight="1"/>
-    <row r="708" ht="15.75" customHeight="1"/>
-    <row r="709" ht="15.75" customHeight="1"/>
-    <row r="710" ht="15.75" customHeight="1"/>
-    <row r="711" ht="15.75" customHeight="1"/>
-    <row r="712" ht="15.75" customHeight="1"/>
-    <row r="713" ht="15.75" customHeight="1"/>
-    <row r="714" ht="15.75" customHeight="1"/>
-    <row r="715" ht="15.75" customHeight="1"/>
-    <row r="716" ht="15.75" customHeight="1"/>
-    <row r="717" ht="15.75" customHeight="1"/>
-    <row r="718" ht="15.75" customHeight="1"/>
-    <row r="719" ht="15.75" customHeight="1"/>
-    <row r="720" ht="15.75" customHeight="1"/>
-    <row r="721" ht="15.75" customHeight="1"/>
-    <row r="722" ht="15.75" customHeight="1"/>
-    <row r="723" ht="15.75" customHeight="1"/>
-    <row r="724" ht="15.75" customHeight="1"/>
-    <row r="725" ht="15.75" customHeight="1"/>
-    <row r="726" ht="15.75" customHeight="1"/>
-    <row r="727" ht="15.75" customHeight="1"/>
-    <row r="728" ht="15.75" customHeight="1"/>
-    <row r="729" ht="15.75" customHeight="1"/>
-    <row r="730" ht="15.75" customHeight="1"/>
-    <row r="731" ht="15.75" customHeight="1"/>
-    <row r="732" ht="15.75" customHeight="1"/>
-    <row r="733" ht="15.75" customHeight="1"/>
-    <row r="734" ht="15.75" customHeight="1"/>
-    <row r="735" ht="15.75" customHeight="1"/>
-    <row r="736" ht="15.75" customHeight="1"/>
-    <row r="737" ht="15.75" customHeight="1"/>
-    <row r="738" ht="15.75" customHeight="1"/>
-    <row r="739" ht="15.75" customHeight="1"/>
-    <row r="740" ht="15.75" customHeight="1"/>
-    <row r="741" ht="15.75" customHeight="1"/>
-    <row r="742" ht="15.75" customHeight="1"/>
-    <row r="743" ht="15.75" customHeight="1"/>
-    <row r="744" ht="15.75" customHeight="1"/>
-    <row r="745" ht="15.75" customHeight="1"/>
-    <row r="746" ht="15.75" customHeight="1"/>
-    <row r="747" ht="15.75" customHeight="1"/>
-    <row r="748" ht="15.75" customHeight="1"/>
-    <row r="749" ht="15.75" customHeight="1"/>
-    <row r="750" ht="15.75" customHeight="1"/>
-    <row r="751" ht="15.75" customHeight="1"/>
-    <row r="752" ht="15.75" customHeight="1"/>
-    <row r="753" ht="15.75" customHeight="1"/>
-    <row r="754" ht="15.75" customHeight="1"/>
-    <row r="755" ht="15.75" customHeight="1"/>
-    <row r="756" ht="15.75" customHeight="1"/>
-    <row r="757" ht="15.75" customHeight="1"/>
-    <row r="758" ht="15.75" customHeight="1"/>
-    <row r="759" ht="15.75" customHeight="1"/>
-    <row r="760" ht="15.75" customHeight="1"/>
-    <row r="761" ht="15.75" customHeight="1"/>
-    <row r="762" ht="15.75" customHeight="1"/>
-    <row r="763" ht="15.75" customHeight="1"/>
-    <row r="764" ht="15.75" customHeight="1"/>
-    <row r="765" ht="15.75" customHeight="1"/>
-    <row r="766" ht="15.75" customHeight="1"/>
-    <row r="767" ht="15.75" customHeight="1"/>
-    <row r="768" ht="15.75" customHeight="1"/>
-    <row r="769" ht="15.75" customHeight="1"/>
-    <row r="770" ht="15.75" customHeight="1"/>
-    <row r="771" ht="15.75" customHeight="1"/>
-    <row r="772" ht="15.75" customHeight="1"/>
-    <row r="773" ht="15.75" customHeight="1"/>
-    <row r="774" ht="15.75" customHeight="1"/>
-    <row r="775" ht="15.75" customHeight="1"/>
-    <row r="776" ht="15.75" customHeight="1"/>
-    <row r="777" ht="15.75" customHeight="1"/>
-    <row r="778" ht="15.75" customHeight="1"/>
-    <row r="779" ht="15.75" customHeight="1"/>
-    <row r="780" ht="15.75" customHeight="1"/>
-    <row r="781" ht="15.75" customHeight="1"/>
-    <row r="782" ht="15.75" customHeight="1"/>
-    <row r="783" ht="15.75" customHeight="1"/>
-    <row r="784" ht="15.75" customHeight="1"/>
-    <row r="785" ht="15.75" customHeight="1"/>
-    <row r="786" ht="15.75" customHeight="1"/>
-    <row r="787" ht="15.75" customHeight="1"/>
-    <row r="788" ht="15.75" customHeight="1"/>
-    <row r="789" ht="15.75" customHeight="1"/>
-    <row r="790" ht="15.75" customHeight="1"/>
-    <row r="791" ht="15.75" customHeight="1"/>
-    <row r="792" ht="15.75" customHeight="1"/>
-    <row r="793" ht="15.75" customHeight="1"/>
-    <row r="794" ht="15.75" customHeight="1"/>
-    <row r="795" ht="15.75" customHeight="1"/>
-    <row r="796" ht="15.75" customHeight="1"/>
-    <row r="797" ht="15.75" customHeight="1"/>
-    <row r="798" ht="15.75" customHeight="1"/>
-    <row r="799" ht="15.75" customHeight="1"/>
-    <row r="800" ht="15.75" customHeight="1"/>
-    <row r="801" ht="15.75" customHeight="1"/>
-    <row r="802" ht="15.75" customHeight="1"/>
-    <row r="803" ht="15.75" customHeight="1"/>
-    <row r="804" ht="15.75" customHeight="1"/>
-    <row r="805" ht="15.75" customHeight="1"/>
-    <row r="806" ht="15.75" customHeight="1"/>
-    <row r="807" ht="15.75" customHeight="1"/>
-    <row r="808" ht="15.75" customHeight="1"/>
-    <row r="809" ht="15.75" customHeight="1"/>
-    <row r="810" ht="15.75" customHeight="1"/>
-    <row r="811" ht="15.75" customHeight="1"/>
-    <row r="812" ht="15.75" customHeight="1"/>
-    <row r="813" ht="15.75" customHeight="1"/>
-    <row r="814" ht="15.75" customHeight="1"/>
-    <row r="815" ht="15.75" customHeight="1"/>
-    <row r="816" ht="15.75" customHeight="1"/>
-    <row r="817" ht="15.75" customHeight="1"/>
-    <row r="818" ht="15.75" customHeight="1"/>
-    <row r="819" ht="15.75" customHeight="1"/>
-    <row r="820" ht="15.75" customHeight="1"/>
-    <row r="821" ht="15.75" customHeight="1"/>
-    <row r="822" ht="15.75" customHeight="1"/>
-    <row r="823" ht="15.75" customHeight="1"/>
-    <row r="824" ht="15.75" customHeight="1"/>
-    <row r="825" ht="15.75" customHeight="1"/>
-    <row r="826" ht="15.75" customHeight="1"/>
-    <row r="827" ht="15.75" customHeight="1"/>
-    <row r="828" ht="15.75" customHeight="1"/>
-    <row r="829" ht="15.75" customHeight="1"/>
-    <row r="830" ht="15.75" customHeight="1"/>
-    <row r="831" ht="15.75" customHeight="1"/>
-    <row r="832" ht="15.75" customHeight="1"/>
-    <row r="833" ht="15.75" customHeight="1"/>
-    <row r="834" ht="15.75" customHeight="1"/>
-    <row r="835" ht="15.75" customHeight="1"/>
-    <row r="836" ht="15.75" customHeight="1"/>
-    <row r="837" ht="15.75" customHeight="1"/>
-    <row r="838" ht="15.75" customHeight="1"/>
-    <row r="839" ht="15.75" customHeight="1"/>
-    <row r="840" ht="15.75" customHeight="1"/>
-    <row r="841" ht="15.75" customHeight="1"/>
-    <row r="842" ht="15.75" customHeight="1"/>
-    <row r="843" ht="15.75" customHeight="1"/>
-    <row r="844" ht="15.75" customHeight="1"/>
-    <row r="845" ht="15.75" customHeight="1"/>
-    <row r="846" ht="15.75" customHeight="1"/>
-    <row r="847" ht="15.75" customHeight="1"/>
-    <row r="848" ht="15.75" customHeight="1"/>
-    <row r="849" ht="15.75" customHeight="1"/>
-    <row r="850" ht="15.75" customHeight="1"/>
-    <row r="851" ht="15.75" customHeight="1"/>
-    <row r="852" ht="15.75" customHeight="1"/>
-    <row r="853" ht="15.75" customHeight="1"/>
-    <row r="854" ht="15.75" customHeight="1"/>
-    <row r="855" ht="15.75" customHeight="1"/>
-    <row r="856" ht="15.75" customHeight="1"/>
-    <row r="857" ht="15.75" customHeight="1"/>
-    <row r="858" ht="15.75" customHeight="1"/>
-    <row r="859" ht="15.75" customHeight="1"/>
-    <row r="860" ht="15.75" customHeight="1"/>
-    <row r="861" ht="15.75" customHeight="1"/>
-    <row r="862" ht="15.75" customHeight="1"/>
-    <row r="863" ht="15.75" customHeight="1"/>
-    <row r="864" ht="15.75" customHeight="1"/>
-    <row r="865" ht="15.75" customHeight="1"/>
-    <row r="866" ht="15.75" customHeight="1"/>
-    <row r="867" ht="15.75" customHeight="1"/>
-    <row r="868" ht="15.75" customHeight="1"/>
-    <row r="869" ht="15.75" customHeight="1"/>
-    <row r="870" ht="15.75" customHeight="1"/>
-    <row r="871" ht="15.75" customHeight="1"/>
-    <row r="872" ht="15.75" customHeight="1"/>
-    <row r="873" ht="15.75" customHeight="1"/>
-    <row r="874" ht="15.75" customHeight="1"/>
-    <row r="875" ht="15.75" customHeight="1"/>
-    <row r="876" ht="15.75" customHeight="1"/>
-    <row r="877" ht="15.75" customHeight="1"/>
-    <row r="878" ht="15.75" customHeight="1"/>
-    <row r="879" ht="15.75" customHeight="1"/>
-    <row r="880" ht="15.75" customHeight="1"/>
-    <row r="881" ht="15.75" customHeight="1"/>
-    <row r="882" ht="15.75" customHeight="1"/>
-    <row r="883" ht="15.75" customHeight="1"/>
-    <row r="884" ht="15.75" customHeight="1"/>
-    <row r="885" ht="15.75" customHeight="1"/>
-    <row r="886" ht="15.75" customHeight="1"/>
-    <row r="887" ht="15.75" customHeight="1"/>
-    <row r="888" ht="15.75" customHeight="1"/>
-    <row r="889" ht="15.75" customHeight="1"/>
-    <row r="890" ht="15.75" customHeight="1"/>
-    <row r="891" ht="15.75" customHeight="1"/>
-    <row r="892" ht="15.75" customHeight="1"/>
-    <row r="893" ht="15.75" customHeight="1"/>
-    <row r="894" ht="15.75" customHeight="1"/>
-    <row r="895" ht="15.75" customHeight="1"/>
-    <row r="896" ht="15.75" customHeight="1"/>
-    <row r="897" ht="15.75" customHeight="1"/>
-    <row r="898" ht="15.75" customHeight="1"/>
-    <row r="899" ht="15.75" customHeight="1"/>
-    <row r="900" ht="15.75" customHeight="1"/>
-    <row r="901" ht="15.75" customHeight="1"/>
-    <row r="902" ht="15.75" customHeight="1"/>
-    <row r="903" ht="15.75" customHeight="1"/>
-    <row r="904" ht="15.75" customHeight="1"/>
-    <row r="905" ht="15.75" customHeight="1"/>
-    <row r="906" ht="15.75" customHeight="1"/>
-    <row r="907" ht="15.75" customHeight="1"/>
-    <row r="908" ht="15.75" customHeight="1"/>
-    <row r="909" ht="15.75" customHeight="1"/>
-    <row r="910" ht="15.75" customHeight="1"/>
-    <row r="911" ht="15.75" customHeight="1"/>
-    <row r="912" ht="15.75" customHeight="1"/>
-    <row r="913" ht="15.75" customHeight="1"/>
-    <row r="914" ht="15.75" customHeight="1"/>
-    <row r="915" ht="15.75" customHeight="1"/>
-    <row r="916" ht="15.75" customHeight="1"/>
-    <row r="917" ht="15.75" customHeight="1"/>
-    <row r="918" ht="15.75" customHeight="1"/>
-    <row r="919" ht="15.75" customHeight="1"/>
-    <row r="920" ht="15.75" customHeight="1"/>
-    <row r="921" ht="15.75" customHeight="1"/>
-    <row r="922" ht="15.75" customHeight="1"/>
-    <row r="923" ht="15.75" customHeight="1"/>
-    <row r="924" ht="15.75" customHeight="1"/>
-    <row r="925" ht="15.75" customHeight="1"/>
-    <row r="926" ht="15.75" customHeight="1"/>
-    <row r="927" ht="15.75" customHeight="1"/>
-    <row r="928" ht="15.75" customHeight="1"/>
-    <row r="929" ht="15.75" customHeight="1"/>
-    <row r="930" ht="15.75" customHeight="1"/>
-    <row r="931" ht="15.75" customHeight="1"/>
-    <row r="932" ht="15.75" customHeight="1"/>
-    <row r="933" ht="15.75" customHeight="1"/>
-    <row r="934" ht="15.75" customHeight="1"/>
-    <row r="935" ht="15.75" customHeight="1"/>
-    <row r="936" ht="15.75" customHeight="1"/>
-    <row r="937" ht="15.75" customHeight="1"/>
-    <row r="938" ht="15.75" customHeight="1"/>
-    <row r="939" ht="15.75" customHeight="1"/>
-    <row r="940" ht="15.75" customHeight="1"/>
-    <row r="941" ht="15.75" customHeight="1"/>
-    <row r="942" ht="15.75" customHeight="1"/>
-    <row r="943" ht="15.75" customHeight="1"/>
-    <row r="944" ht="15.75" customHeight="1"/>
-    <row r="945" ht="15.75" customHeight="1"/>
-    <row r="946" ht="15.75" customHeight="1"/>
-    <row r="947" ht="15.75" customHeight="1"/>
-    <row r="948" ht="15.75" customHeight="1"/>
-    <row r="949" ht="15.75" customHeight="1"/>
-    <row r="950" ht="15.75" customHeight="1"/>
-    <row r="951" ht="15.75" customHeight="1"/>
-    <row r="952" ht="15.75" customHeight="1"/>
-    <row r="953" ht="15.75" customHeight="1"/>
-    <row r="954" ht="15.75" customHeight="1"/>
-    <row r="955" ht="15.75" customHeight="1"/>
-    <row r="956" ht="15.75" customHeight="1"/>
-    <row r="957" ht="15.75" customHeight="1"/>
-    <row r="958" ht="15.75" customHeight="1"/>
-    <row r="959" ht="15.75" customHeight="1"/>
-    <row r="960" ht="15.75" customHeight="1"/>
-    <row r="961" ht="15.75" customHeight="1"/>
-    <row r="962" ht="15.75" customHeight="1"/>
-    <row r="963" ht="15.75" customHeight="1"/>
-    <row r="964" ht="15.75" customHeight="1"/>
-    <row r="965" ht="15.75" customHeight="1"/>
-    <row r="966" ht="15.75" customHeight="1"/>
-    <row r="967" ht="15.75" customHeight="1"/>
-    <row r="968" ht="15.75" customHeight="1"/>
-    <row r="969" ht="15.75" customHeight="1"/>
-    <row r="970" ht="15.75" customHeight="1"/>
-    <row r="971" ht="15.75" customHeight="1"/>
-    <row r="972" ht="15.75" customHeight="1"/>
-    <row r="973" ht="15.75" customHeight="1"/>
-    <row r="974" ht="15.75" customHeight="1"/>
-    <row r="975" ht="15.75" customHeight="1"/>
-    <row r="976" ht="15.75" customHeight="1"/>
-    <row r="977" ht="15.75" customHeight="1"/>
-    <row r="978" ht="15.75" customHeight="1"/>
-    <row r="979" ht="15.75" customHeight="1"/>
-    <row r="980" ht="15.75" customHeight="1"/>
-    <row r="981" ht="15.75" customHeight="1"/>
-    <row r="982" ht="15.75" customHeight="1"/>
-    <row r="983" ht="15.75" customHeight="1"/>
-    <row r="984" ht="15.75" customHeight="1"/>
-    <row r="985" ht="15.75" customHeight="1"/>
-    <row r="986" ht="15.75" customHeight="1"/>
-    <row r="987" ht="15.75" customHeight="1"/>
-    <row r="988" ht="15.75" customHeight="1"/>
-    <row r="989" ht="15.75" customHeight="1"/>
-    <row r="990" ht="15.75" customHeight="1"/>
-    <row r="991" ht="15.75" customHeight="1"/>
-    <row r="992" ht="15.75" customHeight="1"/>
-    <row r="993" ht="15.75" customHeight="1"/>
-    <row r="994" ht="15.75" customHeight="1"/>
-    <row r="995" ht="15.75" customHeight="1"/>
-    <row r="996" ht="15.75" customHeight="1"/>
-    <row r="997" ht="15.75" customHeight="1"/>
-    <row r="998" ht="15.75" customHeight="1"/>
-    <row r="999" ht="15.75" customHeight="1"/>
-    <row r="1000" ht="15.75" customHeight="1"/>
+    <row r="212" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="213" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="214" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="215" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="216" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="217" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="218" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="219" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="220" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="221" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="222" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="223" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="224" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
-  <autoFilter ref="$A$1:$M$211"/>
-  <printOptions/>
-  <pageMargins bottom="1.0" footer="0.0" header="0.0" left="0.75" right="0.75" top="1.0"/>
+  <autoFilter ref="A1:M211" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>